--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -3564,7 +3564,7 @@
         <v>33.118736283898997</v>
       </c>
       <c r="H66" s="43">
-        <v>54.542023478529003</v>
+        <v>54.542022478528999</v>
       </c>
       <c r="I66" s="42">
         <v>8.9920199965437604</v>

--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0249DCB2-BD1D-4CEF-BF04-1C9A664C97A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FD70F60C-E4BA-498B-9CB5-9687E8AB0346}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$C$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$K$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$K$103</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="170">
   <si>
     <t>Tableau 7 : Projections sur les profils d'éducation</t>
   </si>
@@ -430,7 +442,7 @@
     <t>CEEAC</t>
   </si>
   <si>
-    <t>CÉDÉAO</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
@@ -508,9 +520,6 @@
     <t>RDM, États fragiles</t>
   </si>
   <si>
-    <t>États extrêmement fragiles</t>
-  </si>
-  <si>
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
@@ -518,9 +527,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Wittgenstein Centre Human Capital Data Explorer, 2018.</t>
@@ -544,26 +550,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -853,153 +853,155 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1037,7 +1039,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1049,7 +1051,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1096,6 +1098,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1131,6 +1150,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1282,24 +1318,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4C16B9-222C-4074-B7C1-B0EEB857D36A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" style="51" customWidth="1"/>
     <col min="4" max="11" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1419,212 +1454,212 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>17.369863013698598</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>39.956164383561699</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>42.673972602739703</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>5.5311814478220001</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>31.792541523033499</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>62.676277029144501</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>5.3686471009305698</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="18">
         <v>20.194066650759599</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>74.437286248309903</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>32.030989113738102</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>47.144860749348801</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>20.824150136913101</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>14.620192817035701</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>48.781650598580399</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>36.598156584384</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>10.5429767142397</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>24.444682905891199</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>65.012340379869102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>40.069677374736301</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>43.897610567447003</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>16.032712057816699</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>22.8170673444871</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>48.983037482664102</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>28.199895172848802</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>12.397976524133499</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>22.4454109754356</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>65.156612500430995</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>66.231881649856902</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>24.8913037457976</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>8.8768146043456397</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>45.562694685350102</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>36.650627635155303</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>17.786677679494701</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>20.502453439065299</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>15.823406794819</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>63.674139766115701</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>24.320715281003299</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>44.664421737110999</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>31.014862981885699</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>10.133333333333301</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>41.858937198067601</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>48.007729468599102</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>8.6408035749594703</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>23.5219678095464</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>67.837228615494197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>12.089549047418799</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>38.917438211109797</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>48.993012741471397</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>4.4676526499671603</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>29.371264152876002</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>66.161083197156898</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>4.2655721819294001</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>21.938457681939699</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>73.795970136130904</v>
       </c>
     </row>
@@ -1632,7 +1667,7 @@
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="15">
@@ -1664,177 +1699,177 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>10.4441023886894</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>31.9993158884898</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>57.556581722820802</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>3.1451284629935601</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>21.437636185140001</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>75.417235351866495</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>3.0968259661622799</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>15.5832233982406</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>81.319950635597095</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>31.2438823414053</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>37.731825930787302</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>31.024291727807402</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>20.5778809762039</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>37.886414060120899</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>41.535704963675101</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>11.022371042677699</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>20.043649169518901</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <v>68.933979787803395</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>55.230905447597699</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>38.0896904173851</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>6.6794041350171698</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>31.926288617176699</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>53.534453457288002</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>14.539257925535299</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>18.2281787072606</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <v>20.8580770000667</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <v>60.913744292672703</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>21.988739725663599</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>56.719648381999498</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>21.291611892336899</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>9.3392777316559208</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>55.1771345552079</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>35.483587713136203</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>7.2266749508128898</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <v>25.279900590245401</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <v>67.493424458941703</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>37.679871483747498</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>52.322521106060101</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>9.9976074101924404</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>15.315801303663701</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>65.803551359856201</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>18.880647336480099</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>11.4484263453739</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>23.8004885800346</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <v>64.751085074591501</v>
       </c>
     </row>
@@ -1842,7 +1877,7 @@
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="12">
@@ -1877,7 +1912,7 @@
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="12">
@@ -1912,7 +1947,7 @@
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="15">
@@ -1947,7 +1982,7 @@
       <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12">
@@ -1982,7 +2017,7 @@
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="12">
@@ -2014,422 +2049,422 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>39.671361502347402</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>51.408450704225402</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>8.92018779342723</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>19.533231861998999</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>64.2820903094876</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>16.184677828513401</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>14.861329147043399</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>25.798011512297201</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <v>59.3406593406594</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>34.479841668297802</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>46.438738611896198</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>19.081419719806</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>17.287199279245701</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>50.492776835886197</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>32.220023884868098</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>10.7542125217121</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>22.737206101395898</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="26">
         <v>66.508581376892096</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>32.794283565250097</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>39.902218879277903</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>27.303497555471999</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>15.9750058948361</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>37.892006602216497</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>46.132987502947401</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>12.404510731175</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <v>19.206984357948301</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>68.388504910876705</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>61.167760860455402</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>21.3856683894399</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>17.446570750104801</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>40.781476121563003</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <v>28.4804630969609</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>30.738060781476101</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>25.726428147855302</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>14.6866969756869</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <v>59.586874876457799</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>60.666542888971399</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>22.7905681396212</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>16.5428889714074</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>39.1021371343749</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>30.599273031761999</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>30.298589833863002</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>21.527722693741602</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="18">
         <v>14.1508685650829</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <v>64.321408741175603</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>65.950588269428906</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>23.439236337787101</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>10.6101753927841</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>47.344456048647601</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>32.144335503492499</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>20.5112084478599</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>24.448467984622901</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>13.6878430152854</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>61.863689000091703</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>19.4856081623013</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>47.490840721332503</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>33.0235511163662</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>7.6768917124112503</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>42.437978359608003</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>49.885129927980799</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>6.5255348237946196</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>23.704598350002701</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>69.769866826202701</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>53.178988725451802</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>39.126478616924501</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>7.6945326576237303</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>35.1631025347831</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>50.492539115489201</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>14.344358349727599</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>19.766883861824901</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="18">
         <v>21.8502328162139</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <v>58.382883321961202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>20.894090560245601</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>39.533768227168103</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>39.572141212586402</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>12.6742461690559</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>35.442412259021303</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>51.883341571922898</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>12.0718259002635</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="18">
         <v>27.198204352493399</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <v>60.729969747243103</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>60.912753021242501</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>28.395926639477601</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>10.691320339279899</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>41.967143646283397</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>37.432936564990101</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>20.599919788726499</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="18">
         <v>23.656345385317401</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="18">
         <v>16.583278265521301</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>59.760376349161398</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>9.4979647218453191</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>39.213025780190002</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>51.289009497964699</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>4.1147132169576102</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>29.925187032419</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>65.960099750623499</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>3.9603960396039599</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <v>25.866336633663401</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>70.173267326732699</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>64.087963648373204</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>24.343746085253201</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>11.5682902663736</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>42.312480739599401</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>36.416640986132499</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <v>21.2708782742681</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>18.3649801470299</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <v>15.8207859941555</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <v>65.814233858814603</v>
       </c>
     </row>
@@ -2469,142 +2504,142 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>50.897011246341101</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>21.192035125558501</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>27.910953628100501</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>24.548179160183601</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>25.404312174675599</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>50.047508665140903</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>18.284092051050099</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="18">
         <v>14.104612601748601</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>67.611295347201306</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>21.471669384299801</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>70.818869275215803</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>7.7094613404843999</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>8.4672273605658805</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>75.455006745342104</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>16.077765894092099</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="18">
         <v>6.5408835380124</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="18">
         <v>32.569627073933802</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <v>60.889489388053804</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>40.363160178157102</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>48.694669219348903</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>10.942170602494</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>22.193325977925699</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>57.193750328366399</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>20.612923693707899</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>11.7501546072975</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>21.838118591365301</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="19">
         <v>66.411726801337196</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>46.8200198686948</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="25">
         <v>37.367565961535703</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>15.8124141697695</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <v>28.740475050754402</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>43.809729694753102</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>27.4497952544925</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="25">
         <v>16.134050504445</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="25">
         <v>19.523397113264</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <v>64.342552382291004</v>
       </c>
     </row>
@@ -2612,7 +2647,7 @@
       <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="12">
@@ -2644,37 +2679,37 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>25.473552115270898</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>15.538863882076701</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>58.987584002652298</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>10.6839031727768</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>12.5163748657602</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>76.799721961463007</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="18">
         <v>10.9831039627166</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="18">
         <v>11.0898465172976</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="19">
         <v>77.9270495199858</v>
       </c>
     </row>
@@ -2682,7 +2717,7 @@
       <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="12">
@@ -2717,7 +2752,7 @@
       <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="12">
@@ -2749,282 +2784,282 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="18">
         <v>41.452523068264298</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>33.904424070974699</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>24.643052860760999</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>22.390863460422501</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>34.419962549281202</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>43.189173990296297</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="18">
         <v>22.112507212192401</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="18">
         <v>21.7382205839709</v>
       </c>
-      <c r="K43" s="20">
+      <c r="K43" s="19">
         <v>56.149272203836802</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="18">
         <v>17.054125998225398</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>50.695430346051502</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>32.250443655723203</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>7.0430744180882998</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="18">
         <v>41.139954853273103</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>51.816970728638601</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="18">
         <v>7.4580702174273297</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="18">
         <v>33.966345711287502</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>58.575584071285199</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <v>26.6971386973207</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="25">
         <v>26.491837473947999</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="26">
         <v>46.811023828731301</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="25">
         <v>12.310713121512499</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>22.144925313033301</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="26">
         <v>65.544361565454196</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="25">
         <v>12.1311935304117</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="25">
         <v>17.324268646733</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="26">
         <v>70.544537822855403</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>55.124071417411201</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>34.093717597261502</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>10.7822109853273</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <v>43.677363399826497</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="18">
         <v>37.301449634493899</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <v>19.0211869656796</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="18">
         <v>20.6727115716753</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="18">
         <v>17.499136442141602</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="19">
         <v>61.828151986183101</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>70.741263799665902</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>21.441365413430201</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>7.8173707869038802</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="18">
         <v>50.549824554675702</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <v>33.758844170038202</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>15.691331275286201</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="18">
         <v>21.418713067658999</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="18">
         <v>15.8637822806551</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="19">
         <v>62.7175046516859</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="12">
         <v>40.166204986149602</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="12">
         <v>45.630823470158703</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="13">
         <v>14.202971543691801</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="12">
         <v>28.2071873117848</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="12">
         <v>49.5282071873118</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="13">
         <v>22.2646055009034</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="12">
         <v>19.0960912052117</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="12">
         <v>25.366449511400699</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="13">
         <v>55.537459283387598</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>52.195125137154498</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>33.841893515857699</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>13.962981346987799</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
         <v>33.6208563345158</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="18">
         <v>40.703707941869297</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>25.6754357236149</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="18">
         <v>17.745961182650198</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="18">
         <v>17.671455712706901</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="19">
         <v>64.582583104643007</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <v>51.284662384458699</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>28.7012376625411</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>20.014099953000201</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>32.685774022127397</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>33.953306037111297</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>33.360919940761399</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>17.753064003631401</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="18">
         <v>15.442578302315001</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>66.804357694053607</v>
       </c>
     </row>
@@ -3064,177 +3099,177 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
         <v>60.177786656012799</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>23.067319216939701</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>16.7548941270475</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="18">
         <v>42.506643314409999</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="18">
         <v>28.898417683295101</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>28.594939002295</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="18">
         <v>20.382905275884301</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="18">
         <v>14.605123962998</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>65.011970761117695</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="18">
         <v>57.343078245915699</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>27.102321582115199</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>15.554600171969099</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="18">
         <v>35.115558995908401</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="18">
         <v>36.038925135463899</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="19">
         <v>28.8455158686277</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="18">
         <v>20.3684513529073</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="18">
         <v>15.699481865285</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>63.932066781807698</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>48.338338668690803</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>29.216857529454501</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>22.4448038018547</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="18">
         <v>29.276763690182499</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="18">
         <v>34.443019240256497</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>36.280217069560898</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>16.0419975659564</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="18">
         <v>16.458672827409799</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>67.499329606633793</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="18">
         <v>75.807139150418905</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>17.087997627696598</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>7.1048632218845</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="18">
         <v>62.310659939011899</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="18">
         <v>23.969016854072802</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>13.7203232069153</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="18">
         <v>23.719915708529001</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="18">
         <v>13.3773099612872</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>62.902774330183902</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
         <v>76.735843585601302</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>20.004970796570099</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>3.2591856178285901</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="18">
         <v>61.256552652778502</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="18">
         <v>31.213393680654701</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>7.5300536665667801</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="18">
         <v>22.2452151327415</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="18">
         <v>15.610908858657501</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>62.143876008601097</v>
       </c>
     </row>
@@ -3242,7 +3277,7 @@
       <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="12">
@@ -3274,72 +3309,72 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>53.213966519717601</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>34.071760677237599</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>12.7142728030448</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="18">
         <v>35.121614135680097</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="18">
         <v>42.651467993124101</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>22.226917871195798</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="18">
         <v>18.339871238209302</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="18">
         <v>17.8116484503668</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="19">
         <v>63.848480311423899</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>58.016386915613701</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>26.8477190335492</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>15.1358940508372</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="18">
         <v>39.346834374917599</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="18">
         <v>35.035466603380499</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>25.617699021701899</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="18">
         <v>18.7783785294159</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="18">
         <v>15.284239350629401</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <v>65.937382119954805</v>
       </c>
     </row>
@@ -3379,1310 +3414,1288 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>44.671278671283098</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>30.021719580986598</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="26">
         <v>25.3070017477303</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="25">
         <v>28.600022415936401</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="25">
         <v>33.158159784684202</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="26">
         <v>38.241817799379398</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="25">
         <v>14.5449501517122</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="25">
         <v>16.896989096729001</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K61" s="26">
         <v>68.558060751558799</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>39.0836231788441</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>34.420018297432698</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="32">
         <v>26.496358523723199</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>23.822928513987101</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="31">
         <v>37.4875874068454</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="32">
         <v>38.689484079167499</v>
       </c>
-      <c r="I62" s="32">
+      <c r="I62" s="31">
         <v>13.725459316176799</v>
       </c>
-      <c r="J62" s="32">
+      <c r="J62" s="31">
         <v>18.8706342083766</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="32">
         <v>67.403906475446504</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="31">
         <v>15.458556839603</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <v>37.938703355681596</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="32">
         <v>46.602739804715398</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>9.6746819584111101</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="31">
         <v>32.105032016383198</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="32">
         <v>58.220286025205802</v>
       </c>
-      <c r="I63" s="32">
+      <c r="I63" s="31">
         <v>7.9380078817115498</v>
       </c>
-      <c r="J63" s="32">
+      <c r="J63" s="31">
         <v>24.270360240326202</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="32">
         <v>67.791631877962303</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="35">
         <v>16.377479433382099</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="35">
         <v>40.368147260504102</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="36">
         <v>43.254373306113798</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="35">
         <v>8.9841946469653209</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="35">
         <v>35.178916206017298</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="36">
         <v>55.836889147017402</v>
       </c>
-      <c r="I64" s="36">
+      <c r="I64" s="35">
         <v>8.0509658551124197</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="35">
         <v>24.9558664340253</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="36">
         <v>66.993167710862394</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="38">
         <v>20.332256893604001</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="38">
         <v>43.945455042565001</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="39">
         <v>35.722288063831101</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="38">
         <v>12.530160417461801</v>
       </c>
-      <c r="G65" s="39">
+      <c r="G65" s="38">
         <v>37.311519733860699</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="39">
         <v>50.1583198486775</v>
       </c>
-      <c r="I65" s="39">
+      <c r="I65" s="38">
         <v>10.147394402617699</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="38">
         <v>27.798257984713299</v>
       </c>
-      <c r="K65" s="40">
+      <c r="K65" s="39">
         <v>62.054347612668998</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="34"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>18.766722291109399</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>37.445989719356398</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="42">
         <v>43.7872879895342</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="41">
         <v>12.339241237572001</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="41">
         <v>33.118736283898997</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="42">
         <v>54.542022478528999</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="41">
         <v>8.9920199965437604</v>
       </c>
-      <c r="J66" s="42">
+      <c r="J66" s="41">
         <v>23.286960773583999</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="42">
         <v>67.721019229872297</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="38" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="38">
         <v>40.084640904880601</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="38">
         <v>32.289785485742101</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="39">
         <v>27.625573609377302</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="38">
         <v>23.474868727371</v>
       </c>
-      <c r="G67" s="39">
+      <c r="G67" s="38">
         <v>36.393551725769001</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="39">
         <v>40.131579546860003</v>
       </c>
-      <c r="I67" s="39">
+      <c r="I67" s="38">
         <v>14.247093709016999</v>
       </c>
-      <c r="J67" s="39">
+      <c r="J67" s="38">
         <v>17.943750629265399</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="39">
         <v>67.809155661717597</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="34"/>
-      <c r="B68" s="38" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="38">
         <v>41.646985030480003</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D68" s="38">
         <v>27.551046163041999</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="39">
         <v>30.801968806478101</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="38">
         <v>25.455051618661699</v>
       </c>
-      <c r="G68" s="39">
+      <c r="G68" s="38">
         <v>30.0352678361673</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="39">
         <v>44.509680545171101</v>
       </c>
-      <c r="I68" s="39">
+      <c r="I68" s="38">
         <v>14.8248227477974</v>
       </c>
-      <c r="J68" s="39">
+      <c r="J68" s="38">
         <v>16.367370418605802</v>
       </c>
-      <c r="K68" s="40">
+      <c r="K68" s="39">
         <v>68.8078068335968</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="34"/>
-      <c r="B69" s="38" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="38">
         <v>32.595008254445297</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="38">
         <v>50.549626312897701</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="39">
         <v>16.855365432656999</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="38">
         <v>17.394509560234901</v>
       </c>
-      <c r="G69" s="39">
+      <c r="G69" s="38">
         <v>54.475087729999402</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="39">
         <v>28.130402709765701</v>
       </c>
-      <c r="I69" s="39">
+      <c r="I69" s="38">
         <v>10.520446022221</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="38">
         <v>23.920484465508199</v>
       </c>
-      <c r="K69" s="40">
+      <c r="K69" s="39">
         <v>65.559069512270796</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
-      <c r="B70" s="38" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="38">
         <v>39.1664587988246</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="38">
         <v>44.176781427406397</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="39">
         <v>16.656759773769</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="38">
         <v>22.0691721052657</v>
       </c>
-      <c r="G70" s="39">
+      <c r="G70" s="38">
         <v>49.205596232511802</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="39">
         <v>28.725231662222502</v>
       </c>
-      <c r="I70" s="39">
+      <c r="I70" s="38">
         <v>12.941056867781899</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="38">
         <v>21.8332808762271</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="39">
         <v>65.225662255990997</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="34"/>
-      <c r="B71" s="38" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="38">
         <v>44.671278671283098</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="38">
         <v>30.021719580986598</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="39">
         <v>25.3070017477303</v>
       </c>
-      <c r="F71" s="39">
+      <c r="F71" s="38">
         <v>28.600022415936401</v>
       </c>
-      <c r="G71" s="39">
+      <c r="G71" s="38">
         <v>33.158159784684202</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="39">
         <v>38.241817799379398</v>
       </c>
-      <c r="I71" s="39">
+      <c r="I71" s="38">
         <v>14.5449501517122</v>
       </c>
-      <c r="J71" s="39">
+      <c r="J71" s="38">
         <v>16.896989096729001</v>
       </c>
-      <c r="K71" s="40">
+      <c r="K71" s="39">
         <v>68.558060751558799</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
-      <c r="B72" s="38" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="38">
         <v>50.916515240990698</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="38">
         <v>30.809872790915101</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="39">
         <v>18.273611968094201</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F72" s="38">
         <v>32.1128343124563</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G72" s="38">
         <v>36.540955022136103</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="39">
         <v>31.3462106654077</v>
       </c>
-      <c r="I72" s="39">
+      <c r="I72" s="38">
         <v>17.587439407378199</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="38">
         <v>16.547247697524501</v>
       </c>
-      <c r="K72" s="40">
+      <c r="K72" s="39">
         <v>65.865312895097404</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="34"/>
-      <c r="B73" s="38" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="38">
         <v>31.380167630285701</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="38">
         <v>44.9886006638841</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="39">
         <v>23.631231705830199</v>
       </c>
-      <c r="F73" s="39">
+      <c r="F73" s="38">
         <v>17.899305124504401</v>
       </c>
-      <c r="G73" s="39">
+      <c r="G73" s="38">
         <v>48.271069451926003</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="39">
         <v>33.829625423569603</v>
       </c>
-      <c r="I73" s="39">
+      <c r="I73" s="38">
         <v>10.522554598877001</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="38">
         <v>23.0237041599345</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="39">
         <v>66.453741241188496</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="34"/>
-      <c r="B74" s="38" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="38">
         <v>27.8328211398902</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="38">
         <v>36.657934409546897</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="39">
         <v>35.509244450562903</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="38">
         <v>13.9827235277101</v>
       </c>
-      <c r="G74" s="39">
+      <c r="G74" s="38">
         <v>32.041002329866402</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="39">
         <v>53.976274142423598</v>
       </c>
-      <c r="I74" s="39">
+      <c r="I74" s="38">
         <v>13.313961208721</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="38">
         <v>23.747001850760601</v>
       </c>
-      <c r="K74" s="40">
+      <c r="K74" s="39">
         <v>62.939036940518399</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="34"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="41">
         <v>58.140865530322799</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="41">
         <v>33.199650945269497</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="42">
         <v>8.65948352440771</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="41">
         <v>39.905385046470499</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="41">
         <v>42.816177701438903</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="42">
         <v>17.278437252090601</v>
       </c>
-      <c r="I75" s="42">
+      <c r="I75" s="41">
         <v>19.434618627283299</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="41">
         <v>18.097228580103899</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="42">
         <v>62.468152792612898</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="34"/>
-      <c r="B76" s="38" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="38">
         <v>12.6102542235874</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="38">
         <v>46.6302271061639</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="39">
         <v>40.759518670248703</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F76" s="38">
         <v>6.2764259743678403</v>
       </c>
-      <c r="G76" s="39">
+      <c r="G76" s="38">
         <v>36.853215537239002</v>
       </c>
-      <c r="H76" s="40">
+      <c r="H76" s="39">
         <v>56.870358488393201</v>
       </c>
-      <c r="I76" s="39">
+      <c r="I76" s="38">
         <v>5.8147491538389904</v>
       </c>
-      <c r="J76" s="39">
+      <c r="J76" s="38">
         <v>28.357263740214901</v>
       </c>
-      <c r="K76" s="40">
+      <c r="K76" s="39">
         <v>65.827987105946207</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="34"/>
-      <c r="B77" s="38" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="38">
         <v>15.2191945341165</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D77" s="38">
         <v>37.322837528713102</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="39">
         <v>47.457967937170402</v>
       </c>
-      <c r="F77" s="39">
+      <c r="F77" s="38">
         <v>8.0684747715634799</v>
       </c>
-      <c r="G77" s="39">
+      <c r="G77" s="38">
         <v>31.227862410777099</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="39">
         <v>60.703662817659499</v>
       </c>
-      <c r="I77" s="39">
+      <c r="I77" s="38">
         <v>7.6084037945775203</v>
       </c>
-      <c r="J77" s="39">
+      <c r="J77" s="38">
         <v>23.302485799045201</v>
       </c>
-      <c r="K77" s="40">
+      <c r="K77" s="39">
         <v>69.089110406377301</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="34"/>
-      <c r="B78" s="38" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="38">
         <v>2.4214270202857202</v>
       </c>
-      <c r="D78" s="39">
+      <c r="D78" s="38">
         <v>27.348524255602399</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="39">
         <v>70.230048724111896</v>
       </c>
-      <c r="F78" s="39">
+      <c r="F78" s="38">
         <v>1.5681617763103</v>
       </c>
-      <c r="G78" s="39">
+      <c r="G78" s="38">
         <v>18.4597241495965</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="39">
         <v>79.972114074093199</v>
       </c>
-      <c r="I78" s="39">
+      <c r="I78" s="38">
         <v>1.39245358260444</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="38">
         <v>17.419339650433798</v>
       </c>
-      <c r="K78" s="40">
+      <c r="K78" s="39">
         <v>81.188206766961798</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="34"/>
-      <c r="B79" s="41" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="41">
         <v>3.89192270719168</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="41">
         <v>25.649643388171601</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="42">
         <v>70.458433904636806</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="41">
         <v>2.4142127743470798</v>
       </c>
-      <c r="G79" s="42">
+      <c r="G79" s="41">
         <v>19.9660764105368</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="42">
         <v>77.619710815116093</v>
       </c>
-      <c r="I79" s="42">
+      <c r="I79" s="41">
         <v>2.2039675116654101</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="41">
         <v>16.574436323806498</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="42">
         <v>81.221596164528094</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="34"/>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="39">
-        <v>34.139646989381198</v>
-      </c>
-      <c r="D80" s="39">
-        <v>32.446891343517798</v>
-      </c>
-      <c r="E80" s="40">
-        <v>33.413461667100997</v>
-      </c>
-      <c r="F80" s="39">
-        <v>19.024515064870201</v>
-      </c>
-      <c r="G80" s="39">
-        <v>32.885484668985903</v>
-      </c>
-      <c r="H80" s="40">
-        <v>48.090000266144003</v>
-      </c>
-      <c r="I80" s="39">
-        <v>11.690424711802001</v>
-      </c>
-      <c r="J80" s="39">
-        <v>18.187207978845301</v>
-      </c>
-      <c r="K80" s="40">
-        <v>70.122367309352697</v>
+      <c r="C80" s="38">
+        <v>34.152426520847598</v>
+      </c>
+      <c r="D80" s="38">
+        <v>32.474848342446997</v>
+      </c>
+      <c r="E80" s="39">
+        <v>33.372725136705398</v>
+      </c>
+      <c r="F80" s="38">
+        <v>19.039158098011502</v>
+      </c>
+      <c r="G80" s="38">
+        <v>32.912023777738099</v>
+      </c>
+      <c r="H80" s="39">
+        <v>48.048818124250502</v>
+      </c>
+      <c r="I80" s="38">
+        <v>11.7024202329549</v>
+      </c>
+      <c r="J80" s="38">
+        <v>18.198836742271599</v>
+      </c>
+      <c r="K80" s="39">
+        <v>70.098743024773498</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="34"/>
-      <c r="B81" s="38" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="39">
-        <v>11.689532439532201</v>
-      </c>
-      <c r="D81" s="39">
-        <v>24.660651674873801</v>
-      </c>
-      <c r="E81" s="40">
-        <v>63.649815885594002</v>
-      </c>
-      <c r="F81" s="39">
-        <v>8.2910218580513195</v>
-      </c>
-      <c r="G81" s="39">
-        <v>21.846355376291999</v>
-      </c>
-      <c r="H81" s="40">
-        <v>69.862622765656695</v>
-      </c>
-      <c r="I81" s="39">
-        <v>6.2908722226611298</v>
-      </c>
-      <c r="J81" s="39">
-        <v>15.778815958124699</v>
-      </c>
-      <c r="K81" s="40">
-        <v>77.930311819214197</v>
+      <c r="C81" s="38">
+        <v>11.961026209530701</v>
+      </c>
+      <c r="D81" s="38">
+        <v>25.0999375126549</v>
+      </c>
+      <c r="E81" s="39">
+        <v>62.939036277814402</v>
+      </c>
+      <c r="F81" s="38">
+        <v>8.3876216707698408</v>
+      </c>
+      <c r="G81" s="38">
+        <v>22.404678293257</v>
+      </c>
+      <c r="H81" s="39">
+        <v>69.207700035973204</v>
+      </c>
+      <c r="I81" s="38">
+        <v>6.3842877956944202</v>
+      </c>
+      <c r="J81" s="38">
+        <v>16.001704378252501</v>
+      </c>
+      <c r="K81" s="39">
+        <v>77.614007826053097</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="34"/>
-      <c r="B82" s="38" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="39">
-        <v>40.571314930934697</v>
-      </c>
-      <c r="D82" s="39">
-        <v>35.013751880013999</v>
-      </c>
-      <c r="E82" s="40">
-        <v>24.4149331890513</v>
-      </c>
-      <c r="F82" s="39">
-        <v>25.285402951952801</v>
-      </c>
-      <c r="G82" s="39">
-        <v>38.890229694006003</v>
-      </c>
-      <c r="H82" s="40">
-        <v>35.8243673540412</v>
-      </c>
-      <c r="I82" s="39">
-        <v>14.3522073900692</v>
-      </c>
-      <c r="J82" s="39">
-        <v>19.0811151859902</v>
-      </c>
-      <c r="K82" s="40">
-        <v>66.566677423940604</v>
+      <c r="C82" s="38">
+        <v>40.571574142749199</v>
+      </c>
+      <c r="D82" s="38">
+        <v>35.006958488671401</v>
+      </c>
+      <c r="E82" s="39">
+        <v>24.421467368579499</v>
+      </c>
+      <c r="F82" s="38">
+        <v>25.2839799506466</v>
+      </c>
+      <c r="G82" s="38">
+        <v>38.885048662826399</v>
+      </c>
+      <c r="H82" s="39">
+        <v>35.830971386526898</v>
+      </c>
+      <c r="I82" s="38">
+        <v>14.3498358453905</v>
+      </c>
+      <c r="J82" s="38">
+        <v>19.077973045129699</v>
+      </c>
+      <c r="K82" s="39">
+        <v>66.572191109479803</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="41" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="42">
-        <v>15.7534818760502</v>
-      </c>
-      <c r="D83" s="42">
-        <v>38.977706943940902</v>
-      </c>
-      <c r="E83" s="43">
-        <v>45.268811180008797</v>
-      </c>
-      <c r="F83" s="42">
-        <v>9.7917565905832902</v>
-      </c>
-      <c r="G83" s="42">
-        <v>32.973042009516398</v>
-      </c>
-      <c r="H83" s="43">
-        <v>57.235201399900298</v>
-      </c>
-      <c r="I83" s="42">
-        <v>8.0767887072408495</v>
-      </c>
-      <c r="J83" s="42">
-        <v>24.985822575821899</v>
-      </c>
-      <c r="K83" s="43">
-        <v>66.937388716937207</v>
+      <c r="C83" s="41">
+        <v>15.737895229084501</v>
+      </c>
+      <c r="D83" s="41">
+        <v>38.964101144248303</v>
+      </c>
+      <c r="E83" s="42">
+        <v>45.298003626667203</v>
+      </c>
+      <c r="F83" s="41">
+        <v>9.7862405891463506</v>
+      </c>
+      <c r="G83" s="41">
+        <v>32.945830376328402</v>
+      </c>
+      <c r="H83" s="42">
+        <v>57.267929034525302</v>
+      </c>
+      <c r="I83" s="41">
+        <v>8.0720427537210693</v>
+      </c>
+      <c r="J83" s="41">
+        <v>24.9836729149437</v>
+      </c>
+      <c r="K83" s="42">
+        <v>66.944284331335197</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="34"/>
-      <c r="B84" s="38" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="38">
         <v>55.238423500403201</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="38">
         <v>30.760540905194802</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="39">
         <v>14.001035594402</v>
       </c>
-      <c r="F84" s="39">
+      <c r="F84" s="38">
         <v>35.963325780172703</v>
       </c>
-      <c r="G84" s="39">
+      <c r="G84" s="38">
         <v>38.984678659192603</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="39">
         <v>25.051995560634701</v>
       </c>
-      <c r="I84" s="39">
+      <c r="I84" s="38">
         <v>18.287066618448101</v>
       </c>
-      <c r="J84" s="39">
+      <c r="J84" s="38">
         <v>17.235295991425598</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="39">
         <v>64.477637390126304</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="34"/>
-      <c r="B85" s="38" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="38">
         <v>40.543877371045603</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="38">
         <v>15.396363461446001</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="39">
         <v>44.059759167508503</v>
       </c>
-      <c r="F85" s="39">
+      <c r="F85" s="38">
         <v>32.829096231088798</v>
       </c>
-      <c r="G85" s="39">
+      <c r="G85" s="38">
         <v>15.7839916818291</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="39">
         <v>51.386912087082102</v>
       </c>
-      <c r="I85" s="39">
+      <c r="I85" s="38">
         <v>17.753749402430302</v>
       </c>
-      <c r="J85" s="39">
+      <c r="J85" s="38">
         <v>4.8568056240109998</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="39">
         <v>77.389444973558696</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="34"/>
-      <c r="B86" s="38" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="38">
         <v>30.3364321502427</v>
       </c>
-      <c r="D86" s="39">
+      <c r="D86" s="38">
         <v>36.444829413471197</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="39">
         <v>33.218738436286102</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F86" s="38">
         <v>15.849054990804801</v>
       </c>
-      <c r="G86" s="39">
+      <c r="G86" s="38">
         <v>36.877930835749297</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="39">
         <v>47.273014173446001</v>
       </c>
-      <c r="I86" s="39">
+      <c r="I86" s="38">
         <v>11.0013463311506</v>
       </c>
-      <c r="J86" s="39">
+      <c r="J86" s="38">
         <v>19.7796831461729</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="39">
         <v>69.2189705226765</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="34"/>
-      <c r="B87" s="38" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="38">
         <v>27.483644651620299</v>
       </c>
-      <c r="D87" s="39">
+      <c r="D87" s="38">
         <v>34.985762374444</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="39">
         <v>37.530592973935697</v>
       </c>
-      <c r="F87" s="39">
+      <c r="F87" s="38">
         <v>16.442198156727599</v>
       </c>
-      <c r="G87" s="39">
+      <c r="G87" s="38">
         <v>32.532740019418199</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="39">
         <v>51.025061823854202</v>
       </c>
-      <c r="I87" s="39">
+      <c r="I87" s="38">
         <v>13.3448700582254</v>
       </c>
-      <c r="J87" s="39">
+      <c r="J87" s="38">
         <v>20.941012045376201</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="39">
         <v>65.714117896398406</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
-      <c r="B88" s="38" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="38">
         <v>14.066931896217101</v>
       </c>
-      <c r="D88" s="39">
+      <c r="D88" s="38">
         <v>39.737407816558701</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="39">
         <v>46.1956602872242</v>
       </c>
-      <c r="F88" s="39">
+      <c r="F88" s="38">
         <v>5.6999818873392503</v>
       </c>
-      <c r="G88" s="39">
+      <c r="G88" s="38">
         <v>31.4587936967941</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="39">
         <v>62.841224415866698</v>
       </c>
-      <c r="I88" s="39">
+      <c r="I88" s="38">
         <v>5.4320826913757099</v>
       </c>
-      <c r="J88" s="39">
+      <c r="J88" s="38">
         <v>22.507070575555701</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="39">
         <v>72.060846733068601</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="34"/>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="38">
         <v>9.3265423664600906</v>
       </c>
-      <c r="D89" s="39">
+      <c r="D89" s="38">
         <v>49.770386148907797</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="39">
         <v>40.9030714846321</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F89" s="38">
         <v>4.7662034848108403</v>
       </c>
-      <c r="G89" s="39">
+      <c r="G89" s="38">
         <v>40.640057691483896</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="39">
         <v>54.593738823705301</v>
       </c>
-      <c r="I89" s="39">
+      <c r="I89" s="38">
         <v>4.5710145798849</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="38">
         <v>34.025702053918799</v>
       </c>
-      <c r="K89" s="40">
+      <c r="K89" s="39">
         <v>61.403283366196298</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="34"/>
-      <c r="B90" s="41" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="42">
+      <c r="C90" s="41">
         <v>2.64475234592908</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D90" s="41">
         <v>21.450460991861799</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="42">
         <v>75.904786662209204</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="41">
         <v>1.97129730381207</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="41">
         <v>15.544830601490199</v>
       </c>
-      <c r="H90" s="43">
+      <c r="H90" s="42">
         <v>82.483872094697702</v>
       </c>
-      <c r="I90" s="42">
+      <c r="I90" s="41">
         <v>1.74809738876862</v>
       </c>
-      <c r="J90" s="42">
+      <c r="J90" s="41">
         <v>13.899488670298799</v>
       </c>
-      <c r="K90" s="43">
+      <c r="K90" s="42">
         <v>84.352413940932607</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="34"/>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="33"/>
+      <c r="B91" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="38">
         <v>51.311414859508602</v>
       </c>
-      <c r="D91" s="39">
+      <c r="D91" s="38">
         <v>35.282851910064501</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="39">
         <v>13.4057332304269</v>
       </c>
-      <c r="F91" s="39">
+      <c r="F91" s="38">
         <v>32.929029009768598</v>
       </c>
-      <c r="G91" s="39">
+      <c r="G91" s="38">
         <v>43.039502014775202</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="39">
         <v>24.0314689754562</v>
       </c>
-      <c r="I91" s="39">
+      <c r="I91" s="38">
         <v>17.0299913883503</v>
       </c>
-      <c r="J91" s="39">
+      <c r="J91" s="38">
         <v>18.9112560706272</v>
       </c>
-      <c r="K91" s="40">
+      <c r="K91" s="39">
         <v>64.0587525410225</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="34"/>
-      <c r="B92" s="38" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="38">
         <v>41.082589163124297</v>
       </c>
-      <c r="D92" s="39">
+      <c r="D92" s="38">
         <v>36.381018285325197</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="39">
         <v>22.536392551550598</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F92" s="38">
         <v>28.3603779574272</v>
       </c>
-      <c r="G92" s="39">
+      <c r="G92" s="38">
         <v>35.705586675526398</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="39">
         <v>35.934035367046498</v>
       </c>
-      <c r="I92" s="39">
+      <c r="I92" s="38">
         <v>19.7658005951027</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="38">
         <v>19.945098549946401</v>
       </c>
-      <c r="K92" s="40">
+      <c r="K92" s="39">
         <v>60.289100854950902</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="34"/>
-      <c r="B93" s="38" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="39">
+      <c r="C93" s="38">
         <v>38.260687091552299</v>
       </c>
-      <c r="D93" s="39">
+      <c r="D93" s="38">
         <v>36.432040290185299</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E93" s="39">
         <v>25.307272618262498</v>
       </c>
-      <c r="F93" s="39">
+      <c r="F93" s="38">
         <v>24.328825078200602</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="38">
         <v>38.911267637329303</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="39">
         <v>36.759907284470202</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="38">
         <v>16.213357857224999</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="38">
         <v>20.797792849752799</v>
       </c>
-      <c r="K93" s="40">
+      <c r="K93" s="39">
         <v>62.988849293022199</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="38" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="38">
         <v>19.481869831311599</v>
       </c>
-      <c r="D94" s="39">
+      <c r="D94" s="38">
         <v>37.699563472042499</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="39">
         <v>42.818566696646002</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F94" s="38">
         <v>11.240870883285099</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="38">
         <v>33.309218685407203</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="39">
         <v>55.4499104313077</v>
       </c>
-      <c r="I94" s="39">
+      <c r="I94" s="38">
         <v>9.0068728459706104</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="38">
         <v>22.957966468676702</v>
       </c>
-      <c r="K94" s="40">
+      <c r="K94" s="39">
         <v>68.035160685352693</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="34"/>
-      <c r="B95" s="38" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="38">
         <v>55.818625491722301</v>
       </c>
-      <c r="D95" s="39">
+      <c r="D95" s="38">
         <v>29.9846134890416</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="39">
         <v>14.196761019236099</v>
       </c>
-      <c r="F95" s="39">
+      <c r="F95" s="38">
         <v>38.517778613299299</v>
       </c>
-      <c r="G95" s="39">
+      <c r="G95" s="38">
         <v>37.477915651336801</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="39">
         <v>24.0043057353639</v>
       </c>
-      <c r="I95" s="39">
+      <c r="I95" s="38">
         <v>18.7031424898598</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="38">
         <v>16.414777824060501</v>
       </c>
-      <c r="K95" s="40">
+      <c r="K95" s="39">
         <v>64.882079686079706</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="34"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="42">
+      <c r="C96" s="41">
         <v>19.328038854544701</v>
       </c>
-      <c r="D96" s="42">
+      <c r="D96" s="41">
         <v>22.963586021603401</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="42">
         <v>57.708375123851901</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="41">
         <v>14.631258315596201</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="41">
         <v>19.8826079497798</v>
       </c>
-      <c r="H96" s="43">
+      <c r="H96" s="42">
         <v>65.486133734624005</v>
       </c>
-      <c r="I96" s="42">
+      <c r="I96" s="41">
         <v>8.7187726189444099</v>
       </c>
-      <c r="J96" s="42">
+      <c r="J96" s="41">
         <v>11.760679107021399</v>
       </c>
-      <c r="K96" s="43">
+      <c r="K96" s="42">
         <v>79.520548274034198</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="34"/>
-      <c r="B97" s="38" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="44">
         <v>43.932738849649198</v>
       </c>
-      <c r="D97" s="39">
+      <c r="D97" s="44">
         <v>35.408239286000402</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="45">
         <v>20.6590218643504</v>
       </c>
-      <c r="F97" s="39">
+      <c r="F97" s="44">
         <v>26.807947699425601</v>
       </c>
-      <c r="G97" s="39">
+      <c r="G97" s="44">
         <v>40.2507888394993</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="45">
         <v>32.941263461075103</v>
       </c>
-      <c r="I97" s="39">
+      <c r="I97" s="44">
         <v>14.5000132852366</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="44">
         <v>18.808025379441101</v>
       </c>
-      <c r="K97" s="40">
+      <c r="K97" s="45">
         <v>66.691961335322304</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="34"/>
-      <c r="B98" s="38" t="s">
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33"/>
+      <c r="B98" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="46">
         <v>35.064747265404101</v>
       </c>
-      <c r="D98" s="39">
+      <c r="D98" s="46">
         <v>33.677131125602699</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="47">
         <v>31.2581216089932</v>
       </c>
-      <c r="F98" s="39">
+      <c r="F98" s="46">
         <v>22.883976642512099</v>
       </c>
-      <c r="G98" s="39">
+      <c r="G98" s="46">
         <v>33.587915595913401</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="47">
         <v>43.528107761574503</v>
       </c>
-      <c r="I98" s="39">
+      <c r="I98" s="46">
         <v>16.029252657298301</v>
       </c>
-      <c r="J98" s="39">
+      <c r="J98" s="46">
         <v>19.0524901456305</v>
       </c>
-      <c r="K98" s="40">
+      <c r="K98" s="47">
         <v>64.918257197071199</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="34"/>
-      <c r="B99" s="41" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C99" s="42">
-        <v>45.509238912254098</v>
-      </c>
-      <c r="D99" s="42">
-        <v>32.179816653368299</v>
-      </c>
-      <c r="E99" s="43">
-        <v>22.3109444343775</v>
-      </c>
-      <c r="F99" s="42">
-        <v>27.0964482336631</v>
-      </c>
-      <c r="G99" s="42">
-        <v>35.676456575350102</v>
-      </c>
-      <c r="H99" s="43">
-        <v>37.227095190986802</v>
-      </c>
-      <c r="I99" s="42">
-        <v>16.004493125032301</v>
-      </c>
-      <c r="J99" s="42">
-        <v>15.749224039130899</v>
-      </c>
-      <c r="K99" s="43">
-        <v>68.246282835836794</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="44"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="48"/>
       <c r="C101" s="49"/>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
@@ -4694,10 +4707,9 @@
       <c r="K101" s="49"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="48"/>
       <c r="C102" s="49"/>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
@@ -4709,10 +4721,9 @@
       <c r="K102" s="49"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="48"/>
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
       <c r="E103" s="49"/>
@@ -4724,10 +4735,9 @@
       <c r="K103" s="49"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B104" s="48"/>
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
       <c r="C104" s="49"/>
       <c r="D104" s="49"/>
       <c r="E104" s="49"/>
@@ -4739,10 +4749,6 @@
       <c r="K104" s="49"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" s="48"/>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
       <c r="E105" s="49"/>
@@ -4753,8 +4759,8 @@
       <c r="J105" s="49"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B106" s="48"/>
+    <row r="106" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="50"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
       <c r="E106" s="49"/>
@@ -4765,8 +4771,10 @@
       <c r="J106" s="49"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B107" s="48"/>
+    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="50" t="s">
+        <v>165</v>
+      </c>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -4777,10 +4785,8 @@
       <c r="J107" s="49"/>
       <c r="K107" s="49"/>
     </row>
-    <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="50" t="s">
-        <v>167</v>
-      </c>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -4791,8 +4797,10 @@
       <c r="J108" s="49"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="50"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -4805,7 +4813,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -4818,9 +4826,7 @@
       <c r="K110" s="49"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
       <c r="E111" s="49"/>
@@ -4832,7 +4838,9 @@
       <c r="K111" s="49"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -4845,7 +4853,7 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -4858,9 +4866,7 @@
       <c r="K113" s="49"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="B114" s="2"/>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
       <c r="E114" s="49"/>
@@ -4871,27 +4877,15 @@
       <c r="J114" s="49"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
-      <c r="I115" s="49"/>
-      <c r="J115" s="49"/>
-      <c r="K115" s="49"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
-    <hyperlink ref="B110" r:id="rId2"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5"/>
+    <hyperlink ref="B107" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{AFDC7A3C-5C26-4838-B578-6B4FD329F06F}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4101B106-99FC-461B-A231-E74617B1D641}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{933368F8-0211-4604-A049-320FD9E44289}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7DC04F37-0348-49D9-B689-A1C557AD9F9E}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{EF8BB6C3-05DE-424C-A764-5E61F735956F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A572A2B0-9835-4820-9A39-C616E3669B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69003CD9-BE63-4DCC-8188-A66C61467314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{F2D6AF0E-AFE9-432F-8A88-BA6FD3DB955D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7078EBFA-4D62-491C-97FB-65345B3D8FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,13 +48,13 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Emploi en % de la population âgée de 15 ans et plus, 2021</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe féminin, 2021</t>
-  </si>
-  <si>
-    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe masculin, 2021</t>
+    <t>Emploi en % de la population âgée de 15 ans et plus, 2022</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe féminin, 2022</t>
+  </si>
+  <si>
+    <t>Emploi en % de la population âgée de 15 ans et plus, de sexe masculin, 2022</t>
   </si>
   <si>
     <t>Pourcentage de l'emploi informel dans l'emploi total, mesure la plus récente 2013-21</t>
@@ -270,7 +270,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -348,7 +348,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -402,7 +402,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -543,7 +543,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Organisation internationale du Travail - ILOSTAT (récupérés le 26/09/2022).</t>
+    <t>Source : Organisation internationale du travail - ILOSTAT (consulté le 14/05/2023).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1382,11 +1382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EEACC-CC13-43FF-8BF0-2CDA658E547A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F8433D-CF4D-4A44-B93A-41E999A1585A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1463,13 +1463,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="11">
-        <v>76.501000000000005</v>
+        <v>76.873000000000005</v>
       </c>
       <c r="D3" s="12">
-        <v>74.463999999999999</v>
+        <v>74.884</v>
       </c>
       <c r="E3" s="13">
-        <v>78.644999999999996</v>
+        <v>78.965000000000003</v>
       </c>
       <c r="F3" s="11">
         <v>90.3</v>
@@ -1504,13 +1504,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="15">
-        <v>64.296999999999997</v>
+        <v>64.962999999999994</v>
       </c>
       <c r="D4" s="16">
-        <v>59.195999999999998</v>
+        <v>60.015000000000001</v>
       </c>
       <c r="E4" s="17">
-        <v>69.662999999999997</v>
+        <v>70.16</v>
       </c>
       <c r="F4" s="15">
         <v>71.599999999999994</v>
@@ -1545,13 +1545,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="19">
-        <v>50.338000000000001</v>
+        <v>50.481999999999999</v>
       </c>
       <c r="D5" s="20">
-        <v>46.881</v>
+        <v>47.075000000000003</v>
       </c>
       <c r="E5" s="21">
-        <v>53.887999999999998</v>
+        <v>53.987000000000002</v>
       </c>
       <c r="F5" s="19">
         <v>58.8</v>
@@ -1586,13 +1586,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="19">
-        <v>64.108999999999995</v>
+        <v>64.334000000000003</v>
       </c>
       <c r="D6" s="20">
-        <v>57.125</v>
+        <v>57.386000000000003</v>
       </c>
       <c r="E6" s="21">
-        <v>71.379000000000005</v>
+        <v>71.575000000000003</v>
       </c>
       <c r="F6" s="19">
         <v>80.900000000000006</v>
@@ -1627,13 +1627,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="19">
-        <v>67.641999999999996</v>
+        <v>67.634</v>
       </c>
       <c r="D7" s="20">
-        <v>63.152000000000001</v>
+        <v>63.295999999999999</v>
       </c>
       <c r="E7" s="21">
-        <v>72.585999999999999</v>
+        <v>72.408000000000001</v>
       </c>
       <c r="F7" s="19">
         <v>87.1</v>
@@ -1668,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="19">
-        <v>78.161000000000001</v>
+        <v>78.483999999999995</v>
       </c>
       <c r="D8" s="20">
-        <v>77.826999999999998</v>
+        <v>78.22</v>
       </c>
       <c r="E8" s="21">
-        <v>78.52</v>
+        <v>78.768000000000001</v>
       </c>
       <c r="F8" s="19">
         <v>95.7</v>
@@ -1709,13 +1709,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="19">
-        <v>58.47</v>
+        <v>58.866</v>
       </c>
       <c r="D9" s="20">
-        <v>55.170999999999999</v>
+        <v>55.643000000000001</v>
       </c>
       <c r="E9" s="21">
-        <v>62.131999999999998</v>
+        <v>62.448999999999998</v>
       </c>
       <c r="F9" s="19">
         <v>55.8</v>
@@ -1750,13 +1750,13 @@
         <v>29</v>
       </c>
       <c r="C10" s="19">
-        <v>55.76</v>
+        <v>56.805</v>
       </c>
       <c r="D10" s="20">
-        <v>49.637999999999998</v>
+        <v>50.607999999999997</v>
       </c>
       <c r="E10" s="21">
-        <v>62.457999999999998</v>
+        <v>63.564999999999998</v>
       </c>
       <c r="F10" s="19">
         <v>41.6</v>
@@ -1791,13 +1791,13 @@
         <v>31</v>
       </c>
       <c r="C11" s="15">
-        <v>60.64</v>
+        <v>60.661999999999999</v>
       </c>
       <c r="D11" s="16">
-        <v>54.029000000000003</v>
+        <v>54.058</v>
       </c>
       <c r="E11" s="17">
-        <v>67.561999999999998</v>
+        <v>67.575999999999993</v>
       </c>
       <c r="F11" s="15">
         <v>86</v>
@@ -1832,13 +1832,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="19">
-        <v>65.593000000000004</v>
+        <v>66.061000000000007</v>
       </c>
       <c r="D12" s="20">
-        <v>60.662999999999997</v>
+        <v>61.210999999999999</v>
       </c>
       <c r="E12" s="21">
-        <v>71.554000000000002</v>
+        <v>71.915999999999997</v>
       </c>
       <c r="F12" s="19">
         <v>88.4</v>
@@ -1873,13 +1873,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="24">
-        <v>64.1511</v>
+        <v>64.516400000000004</v>
       </c>
       <c r="D13" s="25">
-        <v>59.814599999999999</v>
+        <v>60.239600000000003</v>
       </c>
       <c r="E13" s="26">
-        <v>68.838700000000003</v>
+        <v>69.136899999999997</v>
       </c>
       <c r="F13" s="24">
         <v>75.62</v>
@@ -1914,13 +1914,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="19">
-        <v>79.11</v>
+        <v>79.733999999999995</v>
       </c>
       <c r="D14" s="20">
-        <v>80.692999999999998</v>
+        <v>81.456999999999994</v>
       </c>
       <c r="E14" s="21">
-        <v>77.471000000000004</v>
+        <v>77.95</v>
       </c>
       <c r="F14" s="19">
         <v>98.3</v>
@@ -1955,13 +1955,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="19">
-        <v>71.290000000000006</v>
+        <v>71.771000000000001</v>
       </c>
       <c r="D15" s="20">
-        <v>66.891999999999996</v>
+        <v>67.447000000000003</v>
       </c>
       <c r="E15" s="21">
-        <v>75.774000000000001</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="F15" s="19">
         <v>87.1</v>
@@ -1996,13 +1996,13 @@
         <v>41</v>
       </c>
       <c r="C16" s="19">
-        <v>70.209000000000003</v>
+        <v>70.584000000000003</v>
       </c>
       <c r="D16" s="20">
-        <v>63.195</v>
+        <v>63.65</v>
       </c>
       <c r="E16" s="21">
-        <v>77.349999999999994</v>
+        <v>77.650999999999996</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>42</v>
@@ -2037,13 +2037,13 @@
         <v>44</v>
       </c>
       <c r="C17" s="28">
-        <v>59.322000000000003</v>
+        <v>59.561999999999998</v>
       </c>
       <c r="D17" s="29">
-        <v>48.15</v>
+        <v>48.42</v>
       </c>
       <c r="E17" s="30">
-        <v>70.617999999999995</v>
+        <v>70.826999999999998</v>
       </c>
       <c r="F17" s="28">
         <v>96.9</v>
@@ -2078,13 +2078,13 @@
         <v>46</v>
       </c>
       <c r="C18" s="28">
-        <v>67.253</v>
+        <v>67.590999999999994</v>
       </c>
       <c r="D18" s="29">
-        <v>66.466999999999999</v>
+        <v>66.856999999999999</v>
       </c>
       <c r="E18" s="30">
-        <v>68.052000000000007</v>
+        <v>68.337000000000003</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>42</v>
@@ -2119,13 +2119,13 @@
         <v>48</v>
       </c>
       <c r="C19" s="15">
-        <v>65.768000000000001</v>
+        <v>66.233000000000004</v>
       </c>
       <c r="D19" s="16">
-        <v>62.524000000000001</v>
+        <v>63.076999999999998</v>
       </c>
       <c r="E19" s="17">
-        <v>69.117999999999995</v>
+        <v>69.494</v>
       </c>
       <c r="F19" s="15">
         <v>96.8</v>
@@ -2160,13 +2160,13 @@
         <v>50</v>
       </c>
       <c r="C20" s="28">
-        <v>54.472000000000001</v>
+        <v>55.03</v>
       </c>
       <c r="D20" s="29">
-        <v>50.404000000000003</v>
+        <v>50.991999999999997</v>
       </c>
       <c r="E20" s="30">
-        <v>57.887999999999998</v>
+        <v>58.435000000000002</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>42</v>
@@ -2201,13 +2201,13 @@
         <v>52</v>
       </c>
       <c r="C21" s="28">
-        <v>46.941000000000003</v>
+        <v>47.654000000000003</v>
       </c>
       <c r="D21" s="29">
-        <v>38.225000000000001</v>
+        <v>39.000999999999998</v>
       </c>
       <c r="E21" s="30">
-        <v>55.216000000000001</v>
+        <v>55.899000000000001</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>42</v>
@@ -2242,13 +2242,13 @@
         <v>54</v>
       </c>
       <c r="C22" s="19">
-        <v>53.587000000000003</v>
+        <v>53.765999999999998</v>
       </c>
       <c r="D22" s="20">
-        <v>37.616999999999997</v>
+        <v>37.866</v>
       </c>
       <c r="E22" s="21">
-        <v>69.766000000000005</v>
+        <v>69.903000000000006</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>42</v>
@@ -2283,13 +2283,13 @@
         <v>55</v>
       </c>
       <c r="C23" s="24">
-        <v>63.105777777777803</v>
+        <v>63.547222222222203</v>
       </c>
       <c r="D23" s="25">
-        <v>57.129666666666701</v>
+        <v>57.640777777777799</v>
       </c>
       <c r="E23" s="26">
-        <v>69.028111111111102</v>
+        <v>69.408444444444498</v>
       </c>
       <c r="F23" s="24">
         <v>94.775000000000006</v>
@@ -2324,13 +2324,13 @@
         <v>57</v>
       </c>
       <c r="C24" s="19">
-        <v>43.817</v>
+        <v>44.161999999999999</v>
       </c>
       <c r="D24" s="20">
-        <v>32.904000000000003</v>
+        <v>33.252000000000002</v>
       </c>
       <c r="E24" s="21">
-        <v>54.744</v>
+        <v>55.082000000000001</v>
       </c>
       <c r="F24" s="19">
         <v>87.5</v>
@@ -2365,13 +2365,13 @@
         <v>59</v>
       </c>
       <c r="C25" s="19">
-        <v>31.143999999999998</v>
+        <v>31.387</v>
       </c>
       <c r="D25" s="20">
-        <v>17.925000000000001</v>
+        <v>18.193000000000001</v>
       </c>
       <c r="E25" s="21">
-        <v>44.771000000000001</v>
+        <v>45.002000000000002</v>
       </c>
       <c r="F25" s="19">
         <v>50.5</v>
@@ -2406,13 +2406,13 @@
         <v>61</v>
       </c>
       <c r="C26" s="19">
-        <v>77.001999999999995</v>
+        <v>77.596000000000004</v>
       </c>
       <c r="D26" s="20">
-        <v>70.204999999999998</v>
+        <v>70.912999999999997</v>
       </c>
       <c r="E26" s="21">
-        <v>84.198999999999998</v>
+        <v>84.66</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>42</v>
@@ -2447,13 +2447,13 @@
         <v>63</v>
       </c>
       <c r="C27" s="19">
-        <v>80.396000000000001</v>
+        <v>80.582999999999998</v>
       </c>
       <c r="D27" s="20">
-        <v>74.753</v>
+        <v>75.027000000000001</v>
       </c>
       <c r="E27" s="21">
-        <v>86.091999999999999</v>
+        <v>86.194999999999993</v>
       </c>
       <c r="F27" s="19">
         <v>85.2</v>
@@ -2488,13 +2488,13 @@
         <v>65</v>
       </c>
       <c r="C28" s="19">
-        <v>73.853999999999999</v>
+        <v>74.363</v>
       </c>
       <c r="D28" s="20">
-        <v>72.137</v>
+        <v>72.722999999999999</v>
       </c>
       <c r="E28" s="21">
-        <v>75.628</v>
+        <v>76.058000000000007</v>
       </c>
       <c r="F28" s="19">
         <v>86.5</v>
@@ -2529,13 +2529,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="19">
-        <v>85.174000000000007</v>
+        <v>85.900999999999996</v>
       </c>
       <c r="D29" s="20">
-        <v>82.837999999999994</v>
+        <v>83.725999999999999</v>
       </c>
       <c r="E29" s="21">
-        <v>87.531000000000006</v>
+        <v>88.096999999999994</v>
       </c>
       <c r="F29" s="19">
         <v>95.2</v>
@@ -2570,13 +2570,13 @@
         <v>69</v>
       </c>
       <c r="C30" s="19">
-        <v>58.19</v>
+        <v>58.537999999999997</v>
       </c>
       <c r="D30" s="20">
-        <v>45.378</v>
+        <v>45.825000000000003</v>
       </c>
       <c r="E30" s="21">
-        <v>71.472999999999999</v>
+        <v>71.742000000000004</v>
       </c>
       <c r="F30" s="19">
         <v>30.1</v>
@@ -2611,13 +2611,13 @@
         <v>71</v>
       </c>
       <c r="C31" s="19">
-        <v>55.777999999999999</v>
+        <v>54.902000000000001</v>
       </c>
       <c r="D31" s="20">
-        <v>49.445</v>
+        <v>48.584000000000003</v>
       </c>
       <c r="E31" s="21">
-        <v>62.667000000000002</v>
+        <v>61.756</v>
       </c>
       <c r="F31" s="19">
         <v>87.1</v>
@@ -2693,13 +2693,13 @@
         <v>75</v>
       </c>
       <c r="C33" s="19">
-        <v>33.866</v>
+        <v>33.966999999999999</v>
       </c>
       <c r="D33" s="20">
-        <v>21.094000000000001</v>
+        <v>21.192</v>
       </c>
       <c r="E33" s="21">
-        <v>46.841000000000001</v>
+        <v>46.945999999999998</v>
       </c>
       <c r="F33" s="19">
         <v>82.5</v>
@@ -2730,40 +2730,40 @@
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="15">
-        <v>70.299000000000007</v>
-      </c>
-      <c r="D34" s="16">
-        <v>70.14</v>
-      </c>
-      <c r="E34" s="17">
-        <v>70.465999999999994</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="C34" s="28">
+        <v>70.929000000000002</v>
+      </c>
+      <c r="D34" s="29">
+        <v>70.852000000000004</v>
+      </c>
+      <c r="E34" s="30">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="F34" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="30">
         <v>89.934336624480295</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="29">
         <v>8.7215716266481902</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="29">
         <v>1.34411941874451</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="29">
         <v>46.6432155270045</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="30">
         <v>43.291121097475703</v>
       </c>
     </row>
@@ -2775,13 +2775,13 @@
         <v>79</v>
       </c>
       <c r="C35" s="19">
-        <v>48.488999999999997</v>
+        <v>48.762999999999998</v>
       </c>
       <c r="D35" s="20">
-        <v>29.009</v>
+        <v>29.353999999999999</v>
       </c>
       <c r="E35" s="21">
-        <v>68.384</v>
+        <v>68.590999999999994</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>42</v>
@@ -2816,13 +2816,13 @@
         <v>81</v>
       </c>
       <c r="C36" s="19">
-        <v>81.828000000000003</v>
+        <v>82.597999999999999</v>
       </c>
       <c r="D36" s="20">
-        <v>77.834999999999994</v>
+        <v>78.855000000000004</v>
       </c>
       <c r="E36" s="21">
-        <v>86.057000000000002</v>
+        <v>86.558000000000007</v>
       </c>
       <c r="F36" s="19">
         <v>93.3</v>
@@ -2857,13 +2857,13 @@
         <v>83</v>
       </c>
       <c r="C37" s="19">
-        <v>69.5</v>
+        <v>69.745999999999995</v>
       </c>
       <c r="D37" s="20">
-        <v>67.319999999999993</v>
+        <v>67.611999999999995</v>
       </c>
       <c r="E37" s="21">
-        <v>71.787999999999997</v>
+        <v>71.980999999999995</v>
       </c>
       <c r="F37" s="19">
         <v>95.2</v>
@@ -2898,13 +2898,13 @@
         <v>84</v>
       </c>
       <c r="C38" s="24">
-        <v>62.256692307692298</v>
+        <v>62.571923076923099</v>
       </c>
       <c r="D38" s="25">
-        <v>54.691000000000003</v>
+        <v>55.085230769230797</v>
       </c>
       <c r="E38" s="26">
-        <v>70.049307692307707</v>
+        <v>70.282923076923097</v>
       </c>
       <c r="F38" s="24">
         <v>79.31</v>
@@ -2939,13 +2939,13 @@
         <v>86</v>
       </c>
       <c r="C39" s="28">
-        <v>40.055</v>
+        <v>40.582000000000001</v>
       </c>
       <c r="D39" s="29">
-        <v>15.909000000000001</v>
+        <v>16.359000000000002</v>
       </c>
       <c r="E39" s="30">
-        <v>63.387</v>
+        <v>63.997999999999998</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>42</v>
@@ -2980,13 +2980,13 @@
         <v>88</v>
       </c>
       <c r="C40" s="19">
-        <v>41.317</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="D40" s="20">
-        <v>14.635999999999999</v>
+        <v>15.122999999999999</v>
       </c>
       <c r="E40" s="21">
-        <v>67.712999999999994</v>
+        <v>68.253</v>
       </c>
       <c r="F40" s="19">
         <v>67</v>
@@ -3021,13 +3021,13 @@
         <v>90</v>
       </c>
       <c r="C41" s="28">
-        <v>47.000999999999998</v>
+        <v>47.470999999999997</v>
       </c>
       <c r="D41" s="29">
-        <v>33.847000000000001</v>
+        <v>34.368000000000002</v>
       </c>
       <c r="E41" s="30">
-        <v>59.99</v>
+        <v>60.415999999999997</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>42</v>
@@ -3062,13 +3062,13 @@
         <v>92</v>
       </c>
       <c r="C42" s="28">
-        <v>40.557000000000002</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="D42" s="29">
-        <v>26.100999999999999</v>
+        <v>26.36</v>
       </c>
       <c r="E42" s="30">
-        <v>56.338000000000001</v>
+        <v>56.616</v>
       </c>
       <c r="F42" s="28">
         <v>89.4</v>
@@ -3103,13 +3103,13 @@
         <v>94</v>
       </c>
       <c r="C43" s="19">
-        <v>45.3</v>
+        <v>45.573</v>
       </c>
       <c r="D43" s="20">
-        <v>20.733000000000001</v>
+        <v>21.436</v>
       </c>
       <c r="E43" s="21">
-        <v>69.837999999999994</v>
+        <v>69.698999999999998</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>42</v>
@@ -3144,13 +3144,13 @@
         <v>96</v>
       </c>
       <c r="C44" s="19">
-        <v>45.234000000000002</v>
+        <v>45.734999999999999</v>
       </c>
       <c r="D44" s="20">
-        <v>25.687000000000001</v>
+        <v>26.209</v>
       </c>
       <c r="E44" s="21">
-        <v>65.811000000000007</v>
+        <v>66.322999999999993</v>
       </c>
       <c r="F44" s="19">
         <v>61.3</v>
@@ -3185,13 +3185,13 @@
         <v>97</v>
       </c>
       <c r="C45" s="24">
-        <v>43.244</v>
+        <v>43.670833333333299</v>
       </c>
       <c r="D45" s="25">
-        <v>22.818833333333298</v>
+        <v>23.309166666666702</v>
       </c>
       <c r="E45" s="26">
-        <v>63.846166666666697</v>
+        <v>64.217500000000001</v>
       </c>
       <c r="F45" s="24">
         <v>72.566666666666706</v>
@@ -3226,13 +3226,13 @@
         <v>99</v>
       </c>
       <c r="C46" s="19">
-        <v>62.277000000000001</v>
+        <v>62.588000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>55.9</v>
+        <v>56.250999999999998</v>
       </c>
       <c r="E46" s="21">
-        <v>68.745000000000005</v>
+        <v>69.007999999999996</v>
       </c>
       <c r="F46" s="19">
         <v>96.9</v>
@@ -3267,13 +3267,13 @@
         <v>101</v>
       </c>
       <c r="C47" s="19">
-        <v>65.349000000000004</v>
+        <v>65.552999999999997</v>
       </c>
       <c r="D47" s="20">
-        <v>58.033999999999999</v>
+        <v>58.27</v>
       </c>
       <c r="E47" s="21">
-        <v>72.944999999999993</v>
+        <v>73.105999999999995</v>
       </c>
       <c r="F47" s="19">
         <v>95.7</v>
@@ -3308,13 +3308,13 @@
         <v>103</v>
       </c>
       <c r="C48" s="28">
-        <v>55.302</v>
+        <v>56.131</v>
       </c>
       <c r="D48" s="29">
-        <v>48.875999999999998</v>
+        <v>49.87</v>
       </c>
       <c r="E48" s="30">
-        <v>61.892000000000003</v>
+        <v>62.552</v>
       </c>
       <c r="F48" s="28">
         <v>63.8</v>
@@ -3349,13 +3349,13 @@
         <v>105</v>
       </c>
       <c r="C49" s="19">
-        <v>64.751999999999995</v>
+        <v>65.453999999999994</v>
       </c>
       <c r="D49" s="20">
-        <v>56.685000000000002</v>
+        <v>57.521000000000001</v>
       </c>
       <c r="E49" s="21">
-        <v>72.619</v>
+        <v>73.197999999999993</v>
       </c>
       <c r="F49" s="19">
         <v>91.7</v>
@@ -3390,13 +3390,13 @@
         <v>107</v>
       </c>
       <c r="C50" s="19">
-        <v>60.868000000000002</v>
+        <v>61.484000000000002</v>
       </c>
       <c r="D50" s="20">
-        <v>56.512</v>
+        <v>57.262</v>
       </c>
       <c r="E50" s="21">
-        <v>65.378</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="F50" s="19">
         <v>79.5</v>
@@ -3431,13 +3431,13 @@
         <v>109</v>
       </c>
       <c r="C51" s="15">
-        <v>68.638000000000005</v>
+        <v>68.83</v>
       </c>
       <c r="D51" s="16">
-        <v>65.075999999999993</v>
+        <v>65.296999999999997</v>
       </c>
       <c r="E51" s="17">
-        <v>72.281000000000006</v>
+        <v>72.444000000000003</v>
       </c>
       <c r="F51" s="15">
         <v>78.099999999999994</v>
@@ -3472,13 +3472,13 @@
         <v>111</v>
       </c>
       <c r="C52" s="19">
-        <v>52.265999999999998</v>
+        <v>52.366999999999997</v>
       </c>
       <c r="D52" s="20">
-        <v>41.575000000000003</v>
+        <v>41.665999999999997</v>
       </c>
       <c r="E52" s="21">
-        <v>63.658999999999999</v>
+        <v>63.731000000000002</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>42</v>
@@ -3513,13 +3513,13 @@
         <v>113</v>
       </c>
       <c r="C53" s="19">
-        <v>55.555</v>
+        <v>55.920999999999999</v>
       </c>
       <c r="D53" s="20">
-        <v>48.667999999999999</v>
+        <v>49.073</v>
       </c>
       <c r="E53" s="21">
-        <v>62.866</v>
+        <v>63.177999999999997</v>
       </c>
       <c r="F53" s="19">
         <v>94.8</v>
@@ -3554,13 +3554,13 @@
         <v>115</v>
       </c>
       <c r="C54" s="19">
-        <v>76.263000000000005</v>
+        <v>76.591999999999999</v>
       </c>
       <c r="D54" s="20">
-        <v>72.013000000000005</v>
+        <v>72.397000000000006</v>
       </c>
       <c r="E54" s="21">
-        <v>80.653000000000006</v>
+        <v>80.917000000000002</v>
       </c>
       <c r="F54" s="19">
         <v>89.6</v>
@@ -3595,13 +3595,13 @@
         <v>117</v>
       </c>
       <c r="C55" s="19">
-        <v>66.86</v>
+        <v>67.503</v>
       </c>
       <c r="D55" s="20">
-        <v>52.906999999999996</v>
+        <v>54.244999999999997</v>
       </c>
       <c r="E55" s="21">
-        <v>80.575000000000003</v>
+        <v>80.540000000000006</v>
       </c>
       <c r="F55" s="19">
         <v>94</v>
@@ -3636,13 +3636,13 @@
         <v>119</v>
       </c>
       <c r="C56" s="19">
-        <v>72.852999999999994</v>
+        <v>73.454999999999998</v>
       </c>
       <c r="D56" s="20">
-        <v>61.703000000000003</v>
+        <v>62.45</v>
       </c>
       <c r="E56" s="21">
-        <v>83.724000000000004</v>
+        <v>84.185000000000002</v>
       </c>
       <c r="F56" s="19">
         <v>73.599999999999994</v>
@@ -3673,40 +3673,40 @@
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="28">
-        <v>58.35</v>
-      </c>
-      <c r="D57" s="29">
-        <v>51.536999999999999</v>
-      </c>
-      <c r="E57" s="30">
-        <v>65.06</v>
-      </c>
-      <c r="F57" s="28" t="s">
+      <c r="C57" s="19">
+        <v>58.866999999999997</v>
+      </c>
+      <c r="D57" s="20">
+        <v>52.088000000000001</v>
+      </c>
+      <c r="E57" s="21">
+        <v>65.539000000000001</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="21">
         <v>78.635315880367997</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="20">
         <v>19.417447666394501</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="20">
         <v>1.94723795863411</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="20">
         <v>65.404122197252704</v>
       </c>
-      <c r="M57" s="30">
+      <c r="M57" s="21">
         <v>13.231193683115199</v>
       </c>
     </row>
@@ -3718,13 +3718,13 @@
         <v>123</v>
       </c>
       <c r="C58" s="19">
-        <v>50.851999999999997</v>
+        <v>51.276000000000003</v>
       </c>
       <c r="D58" s="20">
-        <v>37.959000000000003</v>
+        <v>38.56</v>
       </c>
       <c r="E58" s="21">
-        <v>64.748000000000005</v>
+        <v>64.956999999999994</v>
       </c>
       <c r="F58" s="19">
         <v>90.2</v>
@@ -3759,13 +3759,13 @@
         <v>125</v>
       </c>
       <c r="C59" s="19">
-        <v>53.168999999999997</v>
+        <v>53.331000000000003</v>
       </c>
       <c r="D59" s="20">
-        <v>50.927999999999997</v>
+        <v>51.115000000000002</v>
       </c>
       <c r="E59" s="21">
-        <v>55.426000000000002</v>
+        <v>55.561999999999998</v>
       </c>
       <c r="F59" s="19">
         <v>93.1</v>
@@ -3800,13 +3800,13 @@
         <v>127</v>
       </c>
       <c r="C60" s="15">
-        <v>57.665999999999997</v>
+        <v>58.024000000000001</v>
       </c>
       <c r="D60" s="16">
-        <v>55.991</v>
+        <v>56.405999999999999</v>
       </c>
       <c r="E60" s="17">
-        <v>59.332999999999998</v>
+        <v>59.634</v>
       </c>
       <c r="F60" s="15">
         <v>90.1</v>
@@ -3839,13 +3839,13 @@
         <v>128</v>
       </c>
       <c r="C61" s="24">
-        <v>61.401333333333298</v>
+        <v>61.8250666666667</v>
       </c>
       <c r="D61" s="25">
-        <v>54.2909333333333</v>
+        <v>54.831400000000002</v>
       </c>
       <c r="E61" s="26">
-        <v>68.660266666666701</v>
+        <v>68.960066666666705</v>
       </c>
       <c r="F61" s="24">
         <v>87.007692307692295</v>
@@ -3878,13 +3878,13 @@
         <v>129</v>
       </c>
       <c r="C62" s="34">
-        <v>60.363849056603797</v>
+        <v>60.753301886792499</v>
       </c>
       <c r="D62" s="35">
-        <v>52.350433962264198</v>
+        <v>52.822584905660399</v>
       </c>
       <c r="E62" s="36">
-        <v>68.552113207547194</v>
+        <v>68.857150943396206</v>
       </c>
       <c r="F62" s="34">
         <v>81.93</v>
@@ -3917,13 +3917,13 @@
         <v>130</v>
       </c>
       <c r="C63" s="38">
-        <v>60.218520325203301</v>
+        <v>60.798785123967001</v>
       </c>
       <c r="D63" s="39">
-        <v>49.716463414634198</v>
+        <v>50.409214876033097</v>
       </c>
       <c r="E63" s="40">
-        <v>70.276406504065093</v>
+        <v>70.7301570247934</v>
       </c>
       <c r="F63" s="38">
         <v>41.4413793103448</v>
@@ -3956,13 +3956,13 @@
         <v>131</v>
       </c>
       <c r="C64" s="34">
-        <v>62.102620689655197</v>
+        <v>62.818068965517298</v>
       </c>
       <c r="D64" s="35">
-        <v>51.332034482758601</v>
+        <v>52.307172413793097</v>
       </c>
       <c r="E64" s="36">
-        <v>73.291896551724193</v>
+        <v>73.748448275862103</v>
       </c>
       <c r="F64" s="34">
         <v>56.890909090909098</v>
@@ -3995,13 +3995,13 @@
         <v>132</v>
       </c>
       <c r="C65" s="43">
-        <v>55.559035714285699</v>
+        <v>55.938749999999999</v>
       </c>
       <c r="D65" s="44">
-        <v>40.6650357142857</v>
+        <v>41.1044642857143</v>
       </c>
       <c r="E65" s="45">
-        <v>70.390714285714296</v>
+        <v>70.724785714285701</v>
       </c>
       <c r="F65" s="43">
         <v>73.224999999999994</v>
@@ -4034,13 +4034,13 @@
         <v>133</v>
       </c>
       <c r="C66" s="47">
-        <v>60.262284090909098</v>
+        <v>60.784931034482803</v>
       </c>
       <c r="D66" s="48">
-        <v>50.5096477272727</v>
+        <v>51.144321839080497</v>
       </c>
       <c r="E66" s="49">
-        <v>69.757159090909099</v>
+        <v>70.159643678160904</v>
       </c>
       <c r="F66" s="47">
         <v>54.193700787401603</v>
@@ -4073,13 +4073,13 @@
         <v>134</v>
       </c>
       <c r="C67" s="51">
-        <v>58.992649999999998</v>
+        <v>59.287199999999999</v>
       </c>
       <c r="D67" s="52">
-        <v>50.256</v>
+        <v>50.613750000000003</v>
       </c>
       <c r="E67" s="53">
-        <v>67.990549999999999</v>
+        <v>68.221649999999997</v>
       </c>
       <c r="F67" s="51">
         <v>79.029411764705898</v>
@@ -4112,13 +4112,13 @@
         <v>135</v>
       </c>
       <c r="C68" s="43">
-        <v>54.908520000000003</v>
+        <v>55.284680000000002</v>
       </c>
       <c r="D68" s="44">
-        <v>43.878439999999998</v>
+        <v>44.346960000000003</v>
       </c>
       <c r="E68" s="45">
-        <v>66.158240000000006</v>
+        <v>66.439920000000001</v>
       </c>
       <c r="F68" s="43">
         <v>84.044444444444494</v>
@@ -4151,37 +4151,37 @@
         <v>136</v>
       </c>
       <c r="C69" s="43">
-        <v>71.728166666666695</v>
+        <v>71.215000000000003</v>
       </c>
       <c r="D69" s="44">
-        <v>69.594999999999999</v>
+        <v>69.022857142857205</v>
       </c>
       <c r="E69" s="45">
-        <v>74.012833333333404</v>
+        <v>73.543857142857206</v>
       </c>
       <c r="F69" s="43">
-        <v>92.08</v>
+        <v>92.866666666666703</v>
       </c>
       <c r="G69" s="44">
-        <v>94.34</v>
+        <v>94.9166666666667</v>
       </c>
       <c r="H69" s="44">
-        <v>89.98</v>
+        <v>90.933333333333394</v>
       </c>
       <c r="I69" s="45">
-        <v>76.624004882916907</v>
+        <v>76.844162576741994</v>
       </c>
       <c r="J69" s="44">
-        <v>21.513924298004302</v>
+        <v>21.198470705461698</v>
       </c>
       <c r="K69" s="44">
-        <v>1.86207428526892</v>
+        <v>1.95736968881642</v>
       </c>
       <c r="L69" s="44">
-        <v>48.023791845141098</v>
+        <v>50.047148934867202</v>
       </c>
       <c r="M69" s="45">
-        <v>28.600213037775799</v>
+        <v>26.797013641874798</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4190,13 +4190,13 @@
         <v>137</v>
       </c>
       <c r="C70" s="43">
-        <v>63.657363636363598</v>
+        <v>63.972727272727298</v>
       </c>
       <c r="D70" s="44">
-        <v>58.006909090909097</v>
+        <v>58.384999999999998</v>
       </c>
       <c r="E70" s="45">
-        <v>69.324090909090899</v>
+        <v>69.581545454545505</v>
       </c>
       <c r="F70" s="43">
         <v>92.75</v>
@@ -4229,13 +4229,13 @@
         <v>138</v>
       </c>
       <c r="C71" s="43">
-        <v>61.401333333333298</v>
+        <v>61.8250666666667</v>
       </c>
       <c r="D71" s="44">
-        <v>54.290933333333399</v>
+        <v>54.831400000000002</v>
       </c>
       <c r="E71" s="45">
-        <v>68.660266666666701</v>
+        <v>68.960066666666705</v>
       </c>
       <c r="F71" s="43">
         <v>87.007692307692295</v>
@@ -4268,13 +4268,13 @@
         <v>139</v>
       </c>
       <c r="C72" s="43">
-        <v>60.568750000000001</v>
+        <v>60.91675</v>
       </c>
       <c r="D72" s="44">
-        <v>52.822875000000003</v>
+        <v>53.233249999999998</v>
       </c>
       <c r="E72" s="45">
-        <v>68.521124999999998</v>
+        <v>68.805374999999998</v>
       </c>
       <c r="F72" s="43">
         <v>79.98</v>
@@ -4307,13 +4307,13 @@
         <v>140</v>
       </c>
       <c r="C73" s="43">
-        <v>65.085866666666703</v>
+        <v>65.506399999999999</v>
       </c>
       <c r="D73" s="44">
-        <v>59.975000000000001</v>
+        <v>60.4754</v>
       </c>
       <c r="E73" s="45">
-        <v>70.487333333333297</v>
+        <v>70.822800000000001</v>
       </c>
       <c r="F73" s="43">
         <v>77.273333333333397</v>
@@ -4346,13 +4346,13 @@
         <v>140</v>
       </c>
       <c r="C74" s="43">
-        <v>43.629399999999997</v>
+        <v>44.040199999999999</v>
       </c>
       <c r="D74" s="44">
-        <v>24.455400000000001</v>
+        <v>24.946400000000001</v>
       </c>
       <c r="E74" s="45">
-        <v>63.072800000000001</v>
+        <v>63.410400000000003</v>
       </c>
       <c r="F74" s="43">
         <v>75.349999999999994</v>
@@ -4385,13 +4385,13 @@
         <v>141</v>
       </c>
       <c r="C75" s="47">
-        <v>63.821199999999997</v>
+        <v>64.234999999999999</v>
       </c>
       <c r="D75" s="48">
-        <v>57.490400000000001</v>
+        <v>57.982599999999998</v>
       </c>
       <c r="E75" s="49">
-        <v>70.337800000000001</v>
+        <v>70.673199999999994</v>
       </c>
       <c r="F75" s="47">
         <v>86.15</v>
@@ -4424,13 +4424,13 @@
         <v>142</v>
       </c>
       <c r="C76" s="51">
-        <v>66.428222222222303</v>
+        <v>66.647666666666694</v>
       </c>
       <c r="D76" s="52">
-        <v>57.808999999999997</v>
+        <v>58.102444444444501</v>
       </c>
       <c r="E76" s="53">
-        <v>74.965999999999994</v>
+        <v>75.116444444444397</v>
       </c>
       <c r="F76" s="51">
         <v>72.242857142857204</v>
@@ -4463,37 +4463,37 @@
         <v>143</v>
       </c>
       <c r="C77" s="43">
-        <v>61.729833333333403</v>
+        <v>63.0251818181818</v>
       </c>
       <c r="D77" s="44">
-        <v>51.322083333333303</v>
+        <v>53.187272727272699</v>
       </c>
       <c r="E77" s="45">
-        <v>72.538499999999999</v>
+        <v>73.235727272727303</v>
       </c>
       <c r="F77" s="43">
-        <v>54.566666666666698</v>
+        <v>54.227272727272798</v>
       </c>
       <c r="G77" s="44">
-        <v>53.283333333333303</v>
+        <v>53.209090909090897</v>
       </c>
       <c r="H77" s="44">
-        <v>55.358333333333299</v>
+        <v>54.8272727272727</v>
       </c>
       <c r="I77" s="45">
-        <v>37.403850161948</v>
+        <v>37.171059079748801</v>
       </c>
       <c r="J77" s="44">
-        <v>59.172608108567204</v>
+        <v>59.253427252857598</v>
       </c>
       <c r="K77" s="44">
-        <v>3.4235378973560699</v>
+        <v>3.5755094868894899</v>
       </c>
       <c r="L77" s="44">
-        <v>31.257705070248001</v>
+        <v>30.523330652815499</v>
       </c>
       <c r="M77" s="45">
-        <v>6.1461450916999798</v>
+        <v>6.6477284269333099</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4502,13 +4502,13 @@
         <v>143</v>
       </c>
       <c r="C78" s="43">
-        <v>58.846814814814799</v>
+        <v>59.615259259259297</v>
       </c>
       <c r="D78" s="44">
-        <v>53.135074074074097</v>
+        <v>54.032814814814799</v>
       </c>
       <c r="E78" s="45">
-        <v>64.9087777777778</v>
+        <v>65.533740740740797</v>
       </c>
       <c r="F78" s="43">
         <v>8.0346153846153907</v>
@@ -4541,13 +4541,13 @@
         <v>144</v>
       </c>
       <c r="C79" s="47">
-        <v>60.993184210526302</v>
+        <v>61.667236842105297</v>
       </c>
       <c r="D79" s="48">
-        <v>54.597578947368397</v>
+        <v>55.474263157894796</v>
       </c>
       <c r="E79" s="49">
-        <v>67.707394736842105</v>
+        <v>68.169868421052598</v>
       </c>
       <c r="F79" s="47">
         <v>14.715151515151501</v>
@@ -4580,13 +4580,13 @@
         <v>145</v>
       </c>
       <c r="C80" s="51">
-        <v>54.575400000000002</v>
+        <v>56.266300000000001</v>
       </c>
       <c r="D80" s="52">
-        <v>45.398000000000003</v>
+        <v>47.796300000000002</v>
       </c>
       <c r="E80" s="53">
-        <v>63.708599999999997</v>
+        <v>64.705500000000001</v>
       </c>
       <c r="F80" s="51">
         <v>85.1</v>
@@ -4598,19 +4598,19 @@
         <v>82.974999999999994</v>
       </c>
       <c r="I80" s="53">
-        <v>54.892823267534602</v>
+        <v>56.0227253419459</v>
       </c>
       <c r="J80" s="52">
-        <v>41.596165573236</v>
+        <v>40.526577969261403</v>
       </c>
       <c r="K80" s="52">
-        <v>3.51097468321906</v>
+        <v>3.4506628292301</v>
       </c>
       <c r="L80" s="52">
-        <v>48.823043533271402</v>
+        <v>46.946952866246598</v>
       </c>
       <c r="M80" s="53">
-        <v>6.0697797342632196</v>
+        <v>9.0757724756992708</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4619,13 +4619,13 @@
         <v>146</v>
       </c>
       <c r="C81" s="43">
-        <v>59.903590909090902</v>
+        <v>60.311523809523798</v>
       </c>
       <c r="D81" s="44">
-        <v>43.651363636363598</v>
+        <v>43.782809523809497</v>
       </c>
       <c r="E81" s="45">
-        <v>72.404499999999999</v>
+        <v>72.946142857142902</v>
       </c>
       <c r="F81" s="43">
         <v>59.774999999999999</v>
@@ -4658,13 +4658,13 @@
         <v>147</v>
       </c>
       <c r="C82" s="43">
-        <v>61.71</v>
+        <v>61.796790697674403</v>
       </c>
       <c r="D82" s="44">
-        <v>53.9672790697674</v>
+        <v>53.991488372093002</v>
       </c>
       <c r="E82" s="45">
-        <v>69.678511627907</v>
+        <v>69.822651162790706</v>
       </c>
       <c r="F82" s="43">
         <v>81.577777777777797</v>
@@ -4676,19 +4676,19 @@
         <v>79.408333333333402</v>
       </c>
       <c r="I82" s="45">
-        <v>66.006273655952299</v>
+        <v>65.743505731670595</v>
       </c>
       <c r="J82" s="44">
-        <v>31.5916941489231</v>
+        <v>31.8404354521731</v>
       </c>
       <c r="K82" s="44">
-        <v>2.4020259146709599</v>
+        <v>2.4160519272265302</v>
       </c>
       <c r="L82" s="44">
-        <v>49.129048673460403</v>
+        <v>49.565348828582401</v>
       </c>
       <c r="M82" s="45">
-        <v>16.877224982491899</v>
+        <v>16.178156903088102</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4697,13 +4697,13 @@
         <v>148</v>
       </c>
       <c r="C83" s="47">
-        <v>60.2871188118812</v>
+        <v>60.901110000000003</v>
       </c>
       <c r="D83" s="48">
-        <v>51.037574257425803</v>
+        <v>51.800759999999997</v>
       </c>
       <c r="E83" s="49">
-        <v>69.812861386138593</v>
+        <v>70.264799999999994</v>
       </c>
       <c r="F83" s="47">
         <v>39.584810126582298</v>
@@ -4736,37 +4736,37 @@
         <v>149</v>
       </c>
       <c r="C84" s="51">
-        <v>65.285434782608704</v>
+        <v>65.396249999999995</v>
       </c>
       <c r="D84" s="52">
-        <v>59.072869565217403</v>
+        <v>59.2634166666667</v>
       </c>
       <c r="E84" s="53">
-        <v>71.660434782608704</v>
+        <v>71.692208333333298</v>
       </c>
       <c r="F84" s="51">
-        <v>90.577777777777797</v>
+        <v>90.336842105263202</v>
       </c>
       <c r="G84" s="52">
-        <v>93.85</v>
+        <v>93.657894736842096</v>
       </c>
       <c r="H84" s="52">
-        <v>87.8055555555556</v>
+        <v>87.521052631578996</v>
       </c>
       <c r="I84" s="53">
-        <v>81.011054200314405</v>
+        <v>80.821533696242497</v>
       </c>
       <c r="J84" s="52">
-        <v>17.250907840141199</v>
+        <v>17.501250104013401</v>
       </c>
       <c r="K84" s="52">
-        <v>1.7380416020088001</v>
+        <v>1.6772196904391501</v>
       </c>
       <c r="L84" s="52">
-        <v>58.190918193815101</v>
+        <v>57.729399012364297</v>
       </c>
       <c r="M84" s="53">
-        <v>22.8201360064993</v>
+        <v>23.0921346838782</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4775,13 +4775,13 @@
         <v>150</v>
       </c>
       <c r="C85" s="43">
-        <v>52.082666666666697</v>
+        <v>52.508000000000003</v>
       </c>
       <c r="D85" s="44">
-        <v>30.5966666666667</v>
+        <v>30.996666666666702</v>
       </c>
       <c r="E85" s="45">
-        <v>73.761333333333297</v>
+        <v>74.210666666666697</v>
       </c>
       <c r="F85" s="43">
         <v>81.900000000000006</v>
@@ -4814,37 +4814,37 @@
         <v>151</v>
       </c>
       <c r="C86" s="43">
-        <v>57.069043478260902</v>
+        <v>57.322181818181797</v>
       </c>
       <c r="D86" s="44">
-        <v>47.132086956521803</v>
+        <v>47.310136363636403</v>
       </c>
       <c r="E86" s="45">
-        <v>67.228347826087003</v>
+        <v>67.552272727272793</v>
       </c>
       <c r="F86" s="43">
-        <v>80.427777777777806</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="G86" s="44">
-        <v>82.627777777777794</v>
+        <v>82.182352941176504</v>
       </c>
       <c r="H86" s="44">
-        <v>78.3055555555556</v>
+        <v>78.064705882352996</v>
       </c>
       <c r="I86" s="45">
-        <v>56.638481920509697</v>
+        <v>55.737387366778897</v>
       </c>
       <c r="J86" s="44">
-        <v>40.450152383075697</v>
+        <v>41.2315628471667</v>
       </c>
       <c r="K86" s="44">
-        <v>2.9113338947759302</v>
+        <v>3.03101653888679</v>
       </c>
       <c r="L86" s="44">
-        <v>46.072260067635199</v>
+        <v>46.024887441664198</v>
       </c>
       <c r="M86" s="45">
-        <v>10.5662218528746</v>
+        <v>9.71249992511469</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4853,37 +4853,37 @@
         <v>152</v>
       </c>
       <c r="C87" s="43">
-        <v>59.180071428571402</v>
+        <v>59.125481481481501</v>
       </c>
       <c r="D87" s="44">
-        <v>47.124178571428601</v>
+        <v>46.841703703703701</v>
       </c>
       <c r="E87" s="45">
-        <v>71.536678571428595</v>
+        <v>71.7444814814815</v>
       </c>
       <c r="F87" s="43">
-        <v>76.1944444444445</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="G87" s="44">
-        <v>76.75</v>
+        <v>75.636842105263199</v>
       </c>
       <c r="H87" s="44">
-        <v>75.983333333333405</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="I87" s="45">
-        <v>50.0955264638296</v>
+        <v>50.052898719465396</v>
       </c>
       <c r="J87" s="44">
-        <v>47.073096908063299</v>
+        <v>46.9671030610454</v>
       </c>
       <c r="K87" s="44">
-        <v>2.8312926382338999</v>
+        <v>2.97991422961592</v>
       </c>
       <c r="L87" s="44">
-        <v>36.682035012452303</v>
+        <v>36.700136692552398</v>
       </c>
       <c r="M87" s="45">
-        <v>13.413491451377199</v>
+        <v>13.352762026913</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4892,13 +4892,13 @@
         <v>153</v>
       </c>
       <c r="C88" s="43">
-        <v>55.018714285714303</v>
+        <v>55.6181428571429</v>
       </c>
       <c r="D88" s="44">
-        <v>47.408428571428601</v>
+        <v>48.064571428571398</v>
       </c>
       <c r="E88" s="45">
-        <v>62.6885714285714</v>
+        <v>63.238</v>
       </c>
       <c r="F88" s="43">
         <v>49.774999999999999</v>
@@ -4931,37 +4931,37 @@
         <v>154</v>
       </c>
       <c r="C89" s="43">
-        <v>58.666785714285702</v>
+        <v>59.518205128205203</v>
       </c>
       <c r="D89" s="44">
-        <v>47.815047619047597</v>
+        <v>48.828128205128202</v>
       </c>
       <c r="E89" s="45">
-        <v>69.796595238095307</v>
+        <v>70.399461538461594</v>
       </c>
       <c r="F89" s="43">
-        <v>50.838709677419402</v>
+        <v>50.5137931034483</v>
       </c>
       <c r="G89" s="44">
-        <v>48.916129032258098</v>
+        <v>48.6034482758621</v>
       </c>
       <c r="H89" s="44">
-        <v>51.532258064516199</v>
+        <v>51.151724137931097</v>
       </c>
       <c r="I89" s="45">
-        <v>28.253101618150399</v>
+        <v>28.302722535834299</v>
       </c>
       <c r="J89" s="44">
-        <v>68.235395321958094</v>
+        <v>68.207463749558897</v>
       </c>
       <c r="K89" s="44">
-        <v>3.5116309469558402</v>
+        <v>3.48994799602435</v>
       </c>
       <c r="L89" s="44">
-        <v>22.287602788107399</v>
+        <v>22.197627496082799</v>
       </c>
       <c r="M89" s="45">
-        <v>5.9654988300429599</v>
+        <v>6.1050950397514798</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4970,37 +4970,37 @@
         <v>155</v>
       </c>
       <c r="C90" s="47">
-        <v>62.811020408163301</v>
+        <v>63.3095490196079</v>
       </c>
       <c r="D90" s="48">
-        <v>54.208755102040797</v>
+        <v>54.847156862745102</v>
       </c>
       <c r="E90" s="49">
-        <v>69.863571428571504</v>
+        <v>70.337372549019605</v>
       </c>
       <c r="F90" s="47">
-        <v>12.4514285714286</v>
+        <v>13.6527777777778</v>
       </c>
       <c r="G90" s="48">
-        <v>11.9571428571429</v>
+        <v>13.05</v>
       </c>
       <c r="H90" s="48">
-        <v>12.9142857142857</v>
+        <v>14.186111111111099</v>
       </c>
       <c r="I90" s="49">
-        <v>9.9474076816446093</v>
+        <v>10.649763132779</v>
       </c>
       <c r="J90" s="48">
-        <v>86.468554953640805</v>
+        <v>85.833628901662493</v>
       </c>
       <c r="K90" s="48">
-        <v>3.5840434476474301</v>
+        <v>3.5166138099450701</v>
       </c>
       <c r="L90" s="48">
-        <v>9.2148332917829006</v>
+        <v>9.7881215982698002</v>
       </c>
       <c r="M90" s="49">
-        <v>0.73257438986170997</v>
+        <v>0.86164153450915004</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5009,13 +5009,13 @@
         <v>156</v>
       </c>
       <c r="C91" s="51">
-        <v>62.632636363636401</v>
+        <v>62.9495151515152</v>
       </c>
       <c r="D91" s="52">
-        <v>55.470757575757602</v>
+        <v>55.876636363636401</v>
       </c>
       <c r="E91" s="53">
-        <v>70.028636363636394</v>
+        <v>70.250878787878804</v>
       </c>
       <c r="F91" s="51">
         <v>88.718518518518493</v>
@@ -5048,13 +5048,13 @@
         <v>157</v>
       </c>
       <c r="C92" s="43">
-        <v>60.811666666666703</v>
+        <v>61.083111111111101</v>
       </c>
       <c r="D92" s="44">
-        <v>50.464777777777797</v>
+        <v>50.762999999999998</v>
       </c>
       <c r="E92" s="45">
-        <v>71.327777777777797</v>
+        <v>71.573888888888902</v>
       </c>
       <c r="F92" s="43">
         <v>84.987499999999997</v>
@@ -5087,13 +5087,13 @@
         <v>158</v>
       </c>
       <c r="C93" s="43">
-        <v>53.290199999999999</v>
+        <v>53.703600000000002</v>
       </c>
       <c r="D93" s="44">
-        <v>42.688600000000001</v>
+        <v>43.177199999999999</v>
       </c>
       <c r="E93" s="45">
-        <v>64.148200000000003</v>
+        <v>64.491399999999999</v>
       </c>
       <c r="F93" s="43">
         <v>69.05</v>
@@ -5126,13 +5126,13 @@
         <v>159</v>
       </c>
       <c r="C94" s="43">
-        <v>62.270454545454598</v>
+        <v>62.391428571428598</v>
       </c>
       <c r="D94" s="44">
-        <v>52.3392272727273</v>
+        <v>53.421761904761901</v>
       </c>
       <c r="E94" s="45">
-        <v>71.452227272727299</v>
+        <v>71.199476190476204</v>
       </c>
       <c r="F94" s="43">
         <v>58.8333333333334</v>
@@ -5144,19 +5144,19 @@
         <v>60.883333333333297</v>
       </c>
       <c r="I94" s="45">
-        <v>34.024468314711399</v>
+        <v>35.594762809549003</v>
       </c>
       <c r="J94" s="44">
-        <v>63.1325017000405</v>
+        <v>61.501222826724899</v>
       </c>
       <c r="K94" s="44">
-        <v>2.8431904390337399</v>
+        <v>2.9041824581681199</v>
       </c>
       <c r="L94" s="44">
-        <v>26.3831274721577</v>
+        <v>27.6139581540432</v>
       </c>
       <c r="M94" s="45">
-        <v>7.6413408425536504</v>
+        <v>7.9808046555057901</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -5165,13 +5165,13 @@
         <v>160</v>
       </c>
       <c r="C95" s="43">
-        <v>66.393437500000005</v>
+        <v>66.667937499999994</v>
       </c>
       <c r="D95" s="44">
-        <v>60.461624999999998</v>
+        <v>60.850499999999997</v>
       </c>
       <c r="E95" s="45">
-        <v>72.520499999999998</v>
+        <v>72.676437500000006</v>
       </c>
       <c r="F95" s="43">
         <v>85.628571428571405</v>
@@ -5204,13 +5204,13 @@
         <v>161</v>
       </c>
       <c r="C96" s="47">
-        <v>57.001800000000003</v>
+        <v>57.250533333333301</v>
       </c>
       <c r="D96" s="48">
-        <v>48.968866666666699</v>
+        <v>49.375466666666703</v>
       </c>
       <c r="E96" s="49">
-        <v>65.440466666666694</v>
+        <v>65.518666666666704</v>
       </c>
       <c r="F96" s="47">
         <v>63.13</v>
@@ -5237,85 +5237,85 @@
         <v>12.747941614858901</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>162</v>
       </c>
       <c r="C97" s="51">
-        <v>62.963351351351399</v>
+        <v>63.338052631578897</v>
       </c>
       <c r="D97" s="52">
-        <v>56.539864864864903</v>
+        <v>56.997500000000002</v>
       </c>
       <c r="E97" s="53">
-        <v>69.537459459459498</v>
+        <v>69.824236842105293</v>
       </c>
       <c r="F97" s="51">
-        <v>87.378571428571405</v>
+        <v>87.706896551724199</v>
       </c>
       <c r="G97" s="52">
-        <v>91.1142857142857</v>
+        <v>91.372413793103505</v>
       </c>
       <c r="H97" s="52">
-        <v>84.453571428571394</v>
+        <v>84.827586206896598</v>
       </c>
       <c r="I97" s="53">
-        <v>73.785140197339999</v>
+        <v>74.169877705663495</v>
       </c>
       <c r="J97" s="52">
-        <v>24.030917746686999</v>
+        <v>23.666121648986501</v>
       </c>
       <c r="K97" s="52">
-        <v>2.1839428782635499</v>
+        <v>2.1640020222980199</v>
       </c>
       <c r="L97" s="52">
-        <v>55.724220427405299</v>
+        <v>56.2300590860849</v>
       </c>
       <c r="M97" s="53">
-        <v>18.0609197699346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17.939818619578599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>163</v>
       </c>
       <c r="C98" s="47">
-        <v>56.361470588235299</v>
+        <v>56.732315789473702</v>
       </c>
       <c r="D98" s="48">
-        <v>41.085764705882397</v>
+        <v>42.8692631578947</v>
       </c>
       <c r="E98" s="49">
-        <v>71.905235294117702</v>
+        <v>70.8282105263158</v>
       </c>
       <c r="F98" s="47">
-        <v>81.072727272727306</v>
+        <v>81.033333333333402</v>
       </c>
       <c r="G98" s="48">
-        <v>81.527272727272702</v>
+        <v>81.7</v>
       </c>
       <c r="H98" s="48">
-        <v>80.581818181818207</v>
+        <v>80.4166666666667</v>
       </c>
       <c r="I98" s="49">
-        <v>50.2351918804574</v>
+        <v>49.820647950872299</v>
       </c>
       <c r="J98" s="48">
-        <v>46.882932839167097</v>
+        <v>47.3846479110994</v>
       </c>
       <c r="K98" s="48">
-        <v>2.88187455758835</v>
+        <v>2.7947062323122398</v>
       </c>
       <c r="L98" s="48">
-        <v>35.900427948122001</v>
+        <v>35.704174926712803</v>
       </c>
       <c r="M98" s="49">
-        <v>14.3347639323355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+        <v>14.1164730241596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -5330,7 +5330,7 @@
       <c r="L99" s="56"/>
       <c r="M99" s="56"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="L100" s="57"/>
       <c r="M100" s="57"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="L101" s="57"/>
       <c r="M101" s="57"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="L102" s="57"/>
       <c r="M102" s="57"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="L103" s="57"/>
       <c r="M103" s="57"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5410,7 +5410,7 @@
       <c r="L104" s="57"/>
       <c r="M104" s="57"/>
     </row>
-    <row r="105" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="58"/>
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
@@ -5424,8 +5424,7 @@
       <c r="L105" s="57"/>
       <c r="M105" s="57"/>
     </row>
-    <row r="106" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="58"/>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -5437,9 +5436,12 @@
       <c r="K106" s="57"/>
       <c r="L106" s="57"/>
       <c r="M106" s="57"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B107" s="2" t="s">
+      <c r="N106" s="57"/>
+      <c r="O106" s="57"/>
+      <c r="P106" s="57"/>
+    </row>
+    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="58" t="s">
         <v>169</v>
       </c>
       <c r="C107" s="57"/>
@@ -5453,9 +5455,12 @@
       <c r="K107" s="57"/>
       <c r="L107" s="57"/>
       <c r="M107" s="57"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="N107" s="57"/>
+      <c r="O107" s="57"/>
+      <c r="P107" s="57"/>
+    </row>
+    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
       <c r="E108" s="57"/>
@@ -5467,8 +5472,11 @@
       <c r="K108" s="57"/>
       <c r="L108" s="57"/>
       <c r="M108" s="57"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N108" s="57"/>
+      <c r="O108" s="57"/>
+      <c r="P108" s="57"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>170</v>
       </c>
@@ -5484,7 +5492,7 @@
       <c r="L109" s="57"/>
       <c r="M109" s="57"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>171</v>
       </c>
@@ -5500,7 +5508,7 @@
       <c r="L110" s="57"/>
       <c r="M110" s="57"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
@@ -5514,7 +5522,7 @@
       <c r="L111" s="57"/>
       <c r="M111" s="57"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -5530,7 +5538,7 @@
       <c r="L112" s="57"/>
       <c r="M112" s="57"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>173</v>
       </c>
@@ -5541,8 +5549,12 @@
       <c r="G113" s="57"/>
       <c r="H113" s="57"/>
       <c r="I113" s="57"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="57"/>
+      <c r="M113" s="57"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -5551,14 +5563,18 @@
       <c r="G114" s="57"/>
       <c r="H114" s="57"/>
       <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{25FC3759-C5BF-4F44-88DE-48A25794D0AF}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{BC3FF90A-E2FB-4625-A16A-8F88B6FCE2B8}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1A16D0EE-A0BE-4803-8135-B488851FA0BC}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{994E704A-2633-4307-9E30-FB47B0628EFA}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{7CCE2653-B2B7-4A00-87F8-2DC1FF0B0A7E}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D21226AD-F908-4790-9E17-0C864E25F10F}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6C4625DA-F5B1-4C45-8D79-323F86C37318}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7A9A138B-9C1C-4627-A3F1-BC0D2A61B7D2}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{61F0E8D7-4860-4290-900A-820FDA13B7B9}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{399EEDAA-E4D7-49F3-98CB-52028EE18BE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69003CD9-BE63-4DCC-8188-A66C61467314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6E996C-8141-4FB5-88AE-EB17257C4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7078EBFA-4D62-491C-97FB-65345B3D8FD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{797246AF-F841-4ED0-96FE-F1A5CAF4C69B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F8433D-CF4D-4A44-B93A-41E999A1585A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CB947B-8C15-4C8B-BC24-5AC118E5DF8F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1513,13 +1513,13 @@
         <v>70.16</v>
       </c>
       <c r="F4" s="15">
-        <v>71.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="G4" s="16">
-        <v>68.599999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="H4" s="16">
-        <v>74.5</v>
+        <v>76.7</v>
       </c>
       <c r="I4" s="17">
         <v>26.0135181188231</v>
@@ -1759,13 +1759,13 @@
         <v>63.564999999999998</v>
       </c>
       <c r="F10" s="19">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="G10" s="20">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="H10" s="20">
-        <v>39.700000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="I10" s="21">
         <v>10.4663099912175</v>
@@ -1882,13 +1882,13 @@
         <v>69.136899999999997</v>
       </c>
       <c r="F13" s="24">
-        <v>75.62</v>
+        <v>77.955555555555605</v>
       </c>
       <c r="G13" s="25">
-        <v>78.16</v>
+        <v>80.816666666666706</v>
       </c>
       <c r="H13" s="25">
-        <v>73.14</v>
+        <v>75.133333333333397</v>
       </c>
       <c r="I13" s="26">
         <v>50.073809714476603</v>
@@ -2910,7 +2910,7 @@
         <v>79.31</v>
       </c>
       <c r="G38" s="25">
-        <v>82.29</v>
+        <v>82.290000000000106</v>
       </c>
       <c r="H38" s="25">
         <v>77.540000000000006</v>
@@ -3887,13 +3887,13 @@
         <v>68.857150943396206</v>
       </c>
       <c r="F62" s="34">
-        <v>81.93</v>
+        <v>82.630769230769303</v>
       </c>
       <c r="G62" s="35">
-        <v>84.3275000000001</v>
+        <v>85.098717948717905</v>
       </c>
       <c r="H62" s="35">
-        <v>79.765000000000001</v>
+        <v>80.394871794871804</v>
       </c>
       <c r="I62" s="36">
         <v>63.909396224175403</v>
@@ -3926,13 +3926,13 @@
         <v>70.7301570247934</v>
       </c>
       <c r="F63" s="38">
-        <v>41.4413793103448</v>
+        <v>40.226751592356699</v>
       </c>
       <c r="G63" s="39">
-        <v>40.804597701149397</v>
+        <v>39.480254777070101</v>
       </c>
       <c r="H63" s="39">
-        <v>41.820689655172401</v>
+        <v>40.6732484076433</v>
       </c>
       <c r="I63" s="40">
         <v>26.748740704452398</v>
@@ -3965,13 +3965,13 @@
         <v>73.748448275862103</v>
       </c>
       <c r="F64" s="34">
-        <v>56.890909090909098</v>
+        <v>57.809375000000003</v>
       </c>
       <c r="G64" s="35">
-        <v>55.186363636363602</v>
+        <v>55.381250000000001</v>
       </c>
       <c r="H64" s="35">
-        <v>58.145454545454598</v>
+        <v>59.578125</v>
       </c>
       <c r="I64" s="36">
         <v>33.914648463266602</v>
@@ -4004,13 +4004,13 @@
         <v>70.724785714285701</v>
       </c>
       <c r="F65" s="43">
-        <v>73.224999999999994</v>
+        <v>73.073684210526295</v>
       </c>
       <c r="G65" s="44">
-        <v>72.73</v>
+        <v>72.592105263157904</v>
       </c>
       <c r="H65" s="44">
-        <v>73.034999999999997</v>
+        <v>72.842105263157904</v>
       </c>
       <c r="I65" s="45">
         <v>44.855917145794798</v>
@@ -4043,13 +4043,13 @@
         <v>70.159643678160904</v>
       </c>
       <c r="F66" s="47">
-        <v>54.193700787401603</v>
+        <v>54.301276595744703</v>
       </c>
       <c r="G66" s="48">
-        <v>54.512598425196899</v>
+        <v>54.621702127659603</v>
       </c>
       <c r="H66" s="48">
-        <v>53.771653543307103</v>
+        <v>53.857446808510701</v>
       </c>
       <c r="I66" s="49">
         <v>37.939165378005299</v>
@@ -4085,7 +4085,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="G67" s="52">
-        <v>80.694117647058903</v>
+        <v>80.694117647058803</v>
       </c>
       <c r="H67" s="52">
         <v>77.335294117647095</v>
@@ -4124,7 +4124,7 @@
         <v>84.044444444444494</v>
       </c>
       <c r="G68" s="44">
-        <v>86.8333333333334</v>
+        <v>86.8333333333333</v>
       </c>
       <c r="H68" s="44">
         <v>81.711111111111094</v>
@@ -4316,13 +4316,13 @@
         <v>70.822800000000001</v>
       </c>
       <c r="F73" s="43">
-        <v>77.273333333333397</v>
+        <v>78.892857142857196</v>
       </c>
       <c r="G73" s="44">
-        <v>79.186666666666696</v>
+        <v>80.967857142857198</v>
       </c>
       <c r="H73" s="44">
-        <v>75.366666666666703</v>
+        <v>76.807142857142907</v>
       </c>
       <c r="I73" s="45">
         <v>54.588777510081201</v>
@@ -4433,13 +4433,13 @@
         <v>75.116444444444397</v>
       </c>
       <c r="F76" s="51">
-        <v>72.242857142857204</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G76" s="52">
-        <v>73.185714285714297</v>
+        <v>72.825000000000003</v>
       </c>
       <c r="H76" s="52">
-        <v>71.585714285714303</v>
+        <v>70.733333333333405</v>
       </c>
       <c r="I76" s="53">
         <v>38.352725910099302</v>
@@ -4472,13 +4472,13 @@
         <v>73.235727272727303</v>
       </c>
       <c r="F77" s="43">
-        <v>54.227272727272798</v>
+        <v>55.193333333333399</v>
       </c>
       <c r="G77" s="44">
-        <v>53.209090909090897</v>
+        <v>53.62</v>
       </c>
       <c r="H77" s="44">
-        <v>54.8272727272727</v>
+        <v>56.1933333333333</v>
       </c>
       <c r="I77" s="45">
         <v>37.171059079748801</v>
@@ -4511,10 +4511,10 @@
         <v>65.533740740740797</v>
       </c>
       <c r="F78" s="43">
-        <v>8.0346153846153907</v>
+        <v>8.0346153846153801</v>
       </c>
       <c r="G78" s="44">
-        <v>7.2923076923077002</v>
+        <v>7.2923076923076904</v>
       </c>
       <c r="H78" s="44">
         <v>8.6807692307692292</v>
@@ -4550,13 +4550,13 @@
         <v>68.169868421052598</v>
       </c>
       <c r="F79" s="47">
-        <v>14.715151515151501</v>
+        <v>12.5129032258065</v>
       </c>
       <c r="G79" s="48">
-        <v>14.530303030302999</v>
+        <v>12.3032258064516</v>
       </c>
       <c r="H79" s="48">
-        <v>15.012121212121199</v>
+        <v>12.8403225806452</v>
       </c>
       <c r="I79" s="49">
         <v>12.673306256677799</v>
@@ -4628,13 +4628,13 @@
         <v>72.946142857142902</v>
       </c>
       <c r="F81" s="43">
-        <v>59.774999999999999</v>
+        <v>59.1933333333333</v>
       </c>
       <c r="G81" s="44">
-        <v>56.487499999999997</v>
+        <v>55.626666666666701</v>
       </c>
       <c r="H81" s="44">
-        <v>61.024999999999999</v>
+        <v>60.566666666666698</v>
       </c>
       <c r="I81" s="45">
         <v>26.516339767375499</v>
@@ -4667,13 +4667,13 @@
         <v>69.822651162790706</v>
       </c>
       <c r="F82" s="43">
-        <v>81.577777777777797</v>
+        <v>82.348571428571503</v>
       </c>
       <c r="G82" s="44">
-        <v>83.9722222222223</v>
+        <v>84.821428571428598</v>
       </c>
       <c r="H82" s="44">
-        <v>79.408333333333402</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="I82" s="45">
         <v>65.743505731670595</v>
@@ -4706,13 +4706,13 @@
         <v>70.264799999999994</v>
       </c>
       <c r="F83" s="47">
-        <v>39.584810126582298</v>
+        <v>38.2232394366197</v>
       </c>
       <c r="G83" s="48">
-        <v>39.216455696202601</v>
+        <v>37.774647887324001</v>
       </c>
       <c r="H83" s="48">
-        <v>39.875949367088602</v>
+        <v>38.571830985915497</v>
       </c>
       <c r="I83" s="49">
         <v>26.799362690746399</v>
@@ -4748,7 +4748,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="G84" s="52">
-        <v>93.657894736842096</v>
+        <v>93.657894736842195</v>
       </c>
       <c r="H84" s="52">
         <v>87.521052631578996</v>
@@ -4862,13 +4862,13 @@
         <v>71.7444814814815</v>
       </c>
       <c r="F87" s="43">
-        <v>75.099999999999994</v>
+        <v>75.174285714285702</v>
       </c>
       <c r="G87" s="44">
-        <v>75.636842105263199</v>
+        <v>75.7628571428572</v>
       </c>
       <c r="H87" s="44">
-        <v>74.900000000000006</v>
+        <v>74.948571428571398</v>
       </c>
       <c r="I87" s="45">
         <v>50.052898719465396</v>
@@ -4901,13 +4901,13 @@
         <v>63.238</v>
       </c>
       <c r="F88" s="43">
-        <v>49.774999999999999</v>
+        <v>48.1666666666667</v>
       </c>
       <c r="G88" s="44">
-        <v>49.125</v>
+        <v>47.4166666666667</v>
       </c>
       <c r="H88" s="44">
-        <v>50.15</v>
+        <v>48.466666666666697</v>
       </c>
       <c r="I88" s="45">
         <v>31.6083813003339</v>
@@ -4940,13 +4940,13 @@
         <v>70.399461538461594</v>
       </c>
       <c r="F89" s="43">
-        <v>50.5137931034483</v>
+        <v>50.1413043478261</v>
       </c>
       <c r="G89" s="44">
-        <v>48.6034482758621</v>
+        <v>47.5717391304348</v>
       </c>
       <c r="H89" s="44">
-        <v>51.151724137931097</v>
+        <v>51.05</v>
       </c>
       <c r="I89" s="45">
         <v>28.302722535834299</v>
@@ -4979,13 +4979,13 @@
         <v>70.337372549019605</v>
       </c>
       <c r="F90" s="47">
-        <v>13.6527777777778</v>
+        <v>13.34</v>
       </c>
       <c r="G90" s="48">
-        <v>13.05</v>
+        <v>12.7314285714286</v>
       </c>
       <c r="H90" s="48">
-        <v>14.186111111111099</v>
+        <v>13.8828571428571</v>
       </c>
       <c r="I90" s="49">
         <v>10.649763132779</v>
@@ -5021,10 +5021,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="G91" s="52">
-        <v>92.196296296296296</v>
+        <v>92.196296296296396</v>
       </c>
       <c r="H91" s="52">
-        <v>86.044444444444494</v>
+        <v>86.044444444444395</v>
       </c>
       <c r="I91" s="53">
         <v>75.921797775971498</v>
@@ -5135,13 +5135,13 @@
         <v>71.199476190476204</v>
       </c>
       <c r="F94" s="43">
-        <v>58.8333333333334</v>
+        <v>59.9304347826087</v>
       </c>
       <c r="G94" s="44">
-        <v>56.008333333333297</v>
+        <v>57.056521739130403</v>
       </c>
       <c r="H94" s="44">
-        <v>60.883333333333297</v>
+        <v>61.9652173913044</v>
       </c>
       <c r="I94" s="45">
         <v>35.594762809549003</v>
@@ -5174,13 +5174,13 @@
         <v>72.676437500000006</v>
       </c>
       <c r="F95" s="43">
-        <v>85.628571428571405</v>
+        <v>86.274074074074093</v>
       </c>
       <c r="G95" s="44">
-        <v>88.221428571428604</v>
+        <v>89.118518518518499</v>
       </c>
       <c r="H95" s="44">
-        <v>83.664285714285697</v>
+        <v>84.085185185185196</v>
       </c>
       <c r="I95" s="45">
         <v>72.655967149261599</v>
@@ -5213,13 +5213,13 @@
         <v>65.518666666666704</v>
       </c>
       <c r="F96" s="47">
-        <v>63.13</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="G96" s="48">
-        <v>64.7</v>
+        <v>67.929411764705904</v>
       </c>
       <c r="H96" s="48">
-        <v>62.38</v>
+        <v>65.276470588235298</v>
       </c>
       <c r="I96" s="49">
         <v>42.2939315357917</v>
@@ -5255,7 +5255,7 @@
         <v>87.706896551724199</v>
       </c>
       <c r="G97" s="52">
-        <v>91.372413793103505</v>
+        <v>91.372413793103405</v>
       </c>
       <c r="H97" s="52">
         <v>84.827586206896598</v>
@@ -5291,13 +5291,13 @@
         <v>70.8282105263158</v>
       </c>
       <c r="F98" s="47">
-        <v>81.033333333333402</v>
+        <v>80.895652173913007</v>
       </c>
       <c r="G98" s="48">
-        <v>81.7</v>
+        <v>81.547826086956505</v>
       </c>
       <c r="H98" s="48">
-        <v>80.4166666666667</v>
+        <v>80.273913043478302</v>
       </c>
       <c r="I98" s="49">
         <v>49.820647950872299</v>
@@ -5570,11 +5570,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D21226AD-F908-4790-9E17-0C864E25F10F}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6C4625DA-F5B1-4C45-8D79-323F86C37318}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{7A9A138B-9C1C-4627-A3F1-BC0D2A61B7D2}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{61F0E8D7-4860-4290-900A-820FDA13B7B9}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{399EEDAA-E4D7-49F3-98CB-52028EE18BE4}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E10A78A1-B02F-4315-A7F2-41F65D3E6993}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{85A086D8-BBF9-4C4C-ACEC-EDC9415F0313}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5804B257-7FC2-4AAF-A2C9-0153C8EC6AAF}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B97121B8-503C-41D6-9E41-08F181E1D6F9}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{44EA02B8-227A-4E57-9CF6-45649A8C49E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6E996C-8141-4FB5-88AE-EB17257C4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3126A5B-32A2-467F-A9CA-314566913E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{797246AF-F841-4ED0-96FE-F1A5CAF4C69B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F5D125D5-5279-43BC-B76C-75AD9854F79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1382,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CB947B-8C15-4C8B-BC24-5AC118E5DF8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC320E4-E0BD-4676-8D8B-7880176B94CB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5570,11 +5570,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E10A78A1-B02F-4315-A7F2-41F65D3E6993}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{85A086D8-BBF9-4C4C-ACEC-EDC9415F0313}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5804B257-7FC2-4AAF-A2C9-0153C8EC6AAF}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B97121B8-503C-41D6-9E41-08F181E1D6F9}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{44EA02B8-227A-4E57-9CF6-45649A8C49E9}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4CE03CF7-8002-4171-B14F-9478AB861F37}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CA4016AD-0DA7-44D5-A6F1-2C3797F3A089}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{A2AF91C2-9E99-4F08-BD17-43DAD8D74A30}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{480326F4-937E-4F85-B806-461E02DF3C52}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{A918CE74-CBDC-4807-BB3E-F0F16C5FAD40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3126A5B-32A2-467F-A9CA-314566913E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AFC297-669E-45FF-9FD7-C6DADDF05EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F5D125D5-5279-43BC-B76C-75AD9854F79B}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{398B7CC1-353A-40F4-AB46-E3B51E189572}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
   <si>
     <t>Tableau 7 : Caractéristiques de la population active</t>
   </si>
@@ -549,16 +549,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC320E4-E0BD-4676-8D8B-7880176B94CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435C4F47-9062-44A1-999B-FA0463F5C09E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -5494,7 +5497,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -5509,7 +5512,9 @@
       <c r="M110" s="57"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -5524,7 +5529,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -5540,7 +5545,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -5570,13 +5575,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4CE03CF7-8002-4171-B14F-9478AB861F37}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CA4016AD-0DA7-44D5-A6F1-2C3797F3A089}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{A2AF91C2-9E99-4F08-BD17-43DAD8D74A30}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{480326F4-937E-4F85-B806-461E02DF3C52}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{A918CE74-CBDC-4807-BB3E-F0F16C5FAD40}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{76D3BAC4-AD0A-48C1-8913-413741B804F9}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E1EFF7D6-03D3-4EBD-B106-B8F82FF7BE68}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A90B4DEC-135B-4072-8D74-45CC77AE8FF2}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{0B526B10-5B8F-4755-8BB0-7C447776A46E}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{95223C39-3849-4AAC-8CF1-230F0564940B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{85A0BC40-3C14-4F57-99F5-EA436C5A440D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab07.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AFC297-669E-45FF-9FD7-C6DADDF05EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D17D205D-6AD2-4A69-BB84-0831DEAF2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{398B7CC1-353A-40F4-AB46-E3B51E189572}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{B7192D6A-B426-4683-8B23-6C9FC9155D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$I$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1385,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435C4F47-9062-44A1-999B-FA0463F5C09E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EA1DA5-BB47-4C20-BA6E-E01ABE559289}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1393,15 +1393,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1417,7 +1417,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>5.4889091560912302</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>3.1249574008860601</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>2.26198812915157</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>12.186329867402399</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>5.68072670723949</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>19.268062107842798</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>4.6727928015223803</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0.68646126457432</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>29.3481042635925</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>9.6885153328471691</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>34</v>
       </c>
@@ -1885,13 +1885,13 @@
         <v>69.136899999999997</v>
       </c>
       <c r="F13" s="24">
-        <v>77.955555555555605</v>
+        <v>76.02</v>
       </c>
       <c r="G13" s="25">
-        <v>80.816666666666706</v>
+        <v>78.56</v>
       </c>
       <c r="H13" s="25">
-        <v>75.133333333333397</v>
+        <v>73.52</v>
       </c>
       <c r="I13" s="26">
         <v>50.073809714476603</v>
@@ -1909,7 +1909,7 @@
         <v>9.2406847031150008</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>30.602207903447699</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>11.764966405779001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>36.067462862416903</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>19.433384461426201</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>3.7312873707434999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>15.9778172664686</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>5.9590241381259599</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0.97540878545401</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>53</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>12.268503262374001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>34</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>15.1977847173595</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>4.0132870001927801</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>1.14014860363823</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>29.852306988237402</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>35.804042765559501</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>25.427904482258899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>38.124142180430198</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>2.03009392535813</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>26.624441323717701</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>27.209974968352</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>43.291121097475703</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>9.8642128345049898</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>31.944095990661999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>82</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>13.7115074290927</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>34</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>79.31</v>
       </c>
       <c r="G38" s="25">
-        <v>82.290000000000106</v>
+        <v>82.29</v>
       </c>
       <c r="H38" s="25">
         <v>77.540000000000006</v>
@@ -2934,7 +2934,7 @@
         <v>22.233636891498499</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1.87885465323462</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>6.2963431306232698</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>89</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>1.0835025082630101</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>7.0916424860888103</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>15.034064540149901</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>2.3849435492056998</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>34</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>5.62822514459421</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>13.459076056404699</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>100</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>37.513092662267702</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>102</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1.8245901000895699</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>11.3351719511029</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>106</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>10.212643618198999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>8.3199420814863299</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>23.780251263090701</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>112</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>24.5060042418786</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>114</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>8.2882065450913203</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>116</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>25.396434494925</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>31.4297237769525</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>13.231193683115199</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>12.9032405198814</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>124</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>6.1705289073976797</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>126</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>6.0548317434692303</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
         <v>128</v>
@@ -3875,7 +3875,7 @@
         <v>15.628328776356801</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
         <v>129</v>
@@ -3890,13 +3890,13 @@
         <v>68.857150943396206</v>
       </c>
       <c r="F62" s="34">
-        <v>82.630769230769303</v>
+        <v>82.03</v>
       </c>
       <c r="G62" s="35">
-        <v>85.098717948717905</v>
+        <v>84.427500000000094</v>
       </c>
       <c r="H62" s="35">
-        <v>80.394871794871804</v>
+        <v>79.86</v>
       </c>
       <c r="I62" s="36">
         <v>63.909396224175403</v>
@@ -3914,7 +3914,7 @@
         <v>14.8380843696185</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32"/>
       <c r="B63" s="37" t="s">
         <v>130</v>
@@ -3929,13 +3929,13 @@
         <v>70.7301570247934</v>
       </c>
       <c r="F63" s="38">
-        <v>40.226751592356699</v>
+        <v>41.306896551724101</v>
       </c>
       <c r="G63" s="39">
-        <v>39.480254777070101</v>
+        <v>40.655172413793103</v>
       </c>
       <c r="H63" s="39">
-        <v>40.6732484076433</v>
+        <v>41.704597701149403</v>
       </c>
       <c r="I63" s="40">
         <v>26.748740704452398</v>
@@ -3953,7 +3953,7 @@
         <v>5.7963037418207399</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="42" t="s">
         <v>131</v>
@@ -3968,13 +3968,13 @@
         <v>73.748448275862103</v>
       </c>
       <c r="F64" s="34">
-        <v>57.809375000000003</v>
+        <v>56.522727272727302</v>
       </c>
       <c r="G64" s="35">
-        <v>55.381250000000001</v>
+        <v>54.781818181818203</v>
       </c>
       <c r="H64" s="35">
-        <v>59.578125</v>
+        <v>57.818181818181799</v>
       </c>
       <c r="I64" s="36">
         <v>33.914648463266602</v>
@@ -3992,7 +3992,7 @@
         <v>5.1437163984332699</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="33" t="s">
         <v>132</v>
@@ -4007,13 +4007,13 @@
         <v>70.724785714285701</v>
       </c>
       <c r="F65" s="43">
-        <v>73.073684210526295</v>
+        <v>73.14</v>
       </c>
       <c r="G65" s="44">
-        <v>72.592105263157904</v>
+        <v>72.665000000000006</v>
       </c>
       <c r="H65" s="44">
-        <v>72.842105263157904</v>
+        <v>72.95</v>
       </c>
       <c r="I65" s="45">
         <v>44.855917145794798</v>
@@ -4031,7 +4031,7 @@
         <v>11.5134916187216</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="46" t="s">
         <v>133</v>
@@ -4046,13 +4046,13 @@
         <v>70.159643678160904</v>
       </c>
       <c r="F66" s="47">
-        <v>54.301276595744703</v>
+        <v>54.1330708661418</v>
       </c>
       <c r="G66" s="48">
-        <v>54.621702127659603</v>
+        <v>54.441732283464603</v>
       </c>
       <c r="H66" s="48">
-        <v>53.857446808510701</v>
+        <v>53.722047244094497</v>
       </c>
       <c r="I66" s="49">
         <v>37.939165378005299</v>
@@ -4070,7 +4070,7 @@
         <v>8.5191126808734907</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="50" t="s">
         <v>134</v>
@@ -4088,7 +4088,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="G67" s="52">
-        <v>80.694117647058803</v>
+        <v>80.694117647058903</v>
       </c>
       <c r="H67" s="52">
         <v>77.335294117647095</v>
@@ -4109,7 +4109,7 @@
         <v>15.8563105646091</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="33" t="s">
         <v>135</v>
@@ -4148,7 +4148,7 @@
         <v>15.351336357330799</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="33" t="s">
         <v>136</v>
@@ -4187,7 +4187,7 @@
         <v>26.797013641874798</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="33" t="s">
         <v>137</v>
@@ -4211,7 +4211,7 @@
         <v>90.216666666666697</v>
       </c>
       <c r="I70" s="45">
-        <v>72.221598231208404</v>
+        <v>72.221598231208304</v>
       </c>
       <c r="J70" s="44">
         <v>25.2688136313764</v>
@@ -4226,7 +4226,7 @@
         <v>15.353946630549499</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="33" t="s">
         <v>138</v>
@@ -4265,7 +4265,7 @@
         <v>15.628328776356801</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="33" t="s">
         <v>139</v>
@@ -4304,7 +4304,7 @@
         <v>23.287652396139901</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="33" t="s">
         <v>140</v>
@@ -4319,13 +4319,13 @@
         <v>70.822800000000001</v>
       </c>
       <c r="F73" s="43">
-        <v>78.892857142857196</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="G73" s="44">
-        <v>80.967857142857198</v>
+        <v>79.453333333333404</v>
       </c>
       <c r="H73" s="44">
-        <v>76.807142857142907</v>
+        <v>75.62</v>
       </c>
       <c r="I73" s="45">
         <v>54.588777510081201</v>
@@ -4343,7 +4343,7 @@
         <v>12.299752226284101</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="33" t="s">
         <v>140</v>
@@ -4382,7 +4382,7 @@
         <v>5.4946015473883998</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="46" t="s">
         <v>141</v>
@@ -4421,7 +4421,7 @@
         <v>12.6712137736552</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="50" t="s">
         <v>142</v>
@@ -4436,13 +4436,13 @@
         <v>75.116444444444397</v>
       </c>
       <c r="F76" s="51">
-        <v>71.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="G76" s="52">
-        <v>72.825000000000003</v>
+        <v>73</v>
       </c>
       <c r="H76" s="52">
-        <v>70.733333333333405</v>
+        <v>71.342857142857198</v>
       </c>
       <c r="I76" s="53">
         <v>38.352725910099302</v>
@@ -4460,7 +4460,7 @@
         <v>9.4891092149063407</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="33" t="s">
         <v>143</v>
@@ -4475,13 +4475,13 @@
         <v>73.235727272727303</v>
       </c>
       <c r="F77" s="43">
-        <v>55.193333333333399</v>
+        <v>54.127272727272697</v>
       </c>
       <c r="G77" s="44">
-        <v>53.62</v>
+        <v>53.154545454545499</v>
       </c>
       <c r="H77" s="44">
-        <v>56.1933333333333</v>
+        <v>54.727272727272698</v>
       </c>
       <c r="I77" s="45">
         <v>37.171059079748801</v>
@@ -4499,7 +4499,7 @@
         <v>6.6477284269333099</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="33" t="s">
         <v>143</v>
@@ -4514,10 +4514,10 @@
         <v>65.533740740740797</v>
       </c>
       <c r="F78" s="43">
-        <v>8.0346153846153801</v>
+        <v>8.0346153846153907</v>
       </c>
       <c r="G78" s="44">
-        <v>7.2923076923076904</v>
+        <v>7.2923076923077002</v>
       </c>
       <c r="H78" s="44">
         <v>8.6807692307692292</v>
@@ -4538,7 +4538,7 @@
         <v>0.86658873036050998</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="46" t="s">
         <v>144</v>
@@ -4553,13 +4553,13 @@
         <v>68.169868421052598</v>
       </c>
       <c r="F79" s="47">
-        <v>12.5129032258065</v>
+        <v>14.506060606060601</v>
       </c>
       <c r="G79" s="48">
-        <v>12.3032258064516</v>
+        <v>14.3121212121212</v>
       </c>
       <c r="H79" s="48">
-        <v>12.8403225806452</v>
+        <v>14.8121212121212</v>
       </c>
       <c r="I79" s="49">
         <v>12.673306256677799</v>
@@ -4577,7 +4577,7 @@
         <v>1.2125088796974901</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="50" t="s">
         <v>145</v>
@@ -4616,7 +4616,7 @@
         <v>9.0757724756992708</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="33" t="s">
         <v>146</v>
@@ -4631,13 +4631,13 @@
         <v>72.946142857142902</v>
       </c>
       <c r="F81" s="43">
-        <v>59.1933333333333</v>
+        <v>59.787500000000001</v>
       </c>
       <c r="G81" s="44">
-        <v>55.626666666666701</v>
+        <v>56.612499999999997</v>
       </c>
       <c r="H81" s="44">
-        <v>60.566666666666698</v>
+        <v>60.95</v>
       </c>
       <c r="I81" s="45">
         <v>26.516339767375499</v>
@@ -4655,7 +4655,7 @@
         <v>5.6870257654739502</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="33" t="s">
         <v>147</v>
@@ -4670,13 +4670,13 @@
         <v>69.822651162790706</v>
       </c>
       <c r="F82" s="43">
-        <v>82.348571428571503</v>
+        <v>81.688888888888897</v>
       </c>
       <c r="G82" s="44">
-        <v>84.821428571428598</v>
+        <v>84.0833333333334</v>
       </c>
       <c r="H82" s="44">
-        <v>80.099999999999994</v>
+        <v>79.5138888888889</v>
       </c>
       <c r="I82" s="45">
         <v>65.743505731670595</v>
@@ -4694,7 +4694,7 @@
         <v>16.178156903088102</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="46" t="s">
         <v>148</v>
@@ -4709,13 +4709,13 @@
         <v>70.264799999999994</v>
       </c>
       <c r="F83" s="47">
-        <v>38.2232394366197</v>
+        <v>39.4354430379747</v>
       </c>
       <c r="G83" s="48">
-        <v>37.774647887324001</v>
+        <v>39.039240506329101</v>
       </c>
       <c r="H83" s="48">
-        <v>38.571830985915497</v>
+        <v>39.755696202531702</v>
       </c>
       <c r="I83" s="49">
         <v>26.799362690746399</v>
@@ -4733,7 +4733,7 @@
         <v>5.8201068653814199</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="50" t="s">
         <v>149</v>
@@ -4751,7 +4751,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="G84" s="52">
-        <v>93.657894736842195</v>
+        <v>93.657894736842096</v>
       </c>
       <c r="H84" s="52">
         <v>87.521052631578996</v>
@@ -4772,7 +4772,7 @@
         <v>23.0921346838782</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="33" t="s">
         <v>150</v>
@@ -4811,7 +4811,7 @@
         <v>16.7639250787423</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="33" t="s">
         <v>151</v>
@@ -4850,7 +4850,7 @@
         <v>9.71249992511469</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="33" t="s">
         <v>152</v>
@@ -4865,13 +4865,13 @@
         <v>71.7444814814815</v>
       </c>
       <c r="F87" s="43">
-        <v>75.174285714285702</v>
+        <v>74.931578947368394</v>
       </c>
       <c r="G87" s="44">
-        <v>75.7628571428572</v>
+        <v>75.515789473684194</v>
       </c>
       <c r="H87" s="44">
-        <v>74.948571428571398</v>
+        <v>74.710526315789494</v>
       </c>
       <c r="I87" s="45">
         <v>50.052898719465396</v>
@@ -4889,7 +4889,7 @@
         <v>13.352762026913</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>153</v>
@@ -4904,13 +4904,13 @@
         <v>63.238</v>
       </c>
       <c r="F88" s="43">
-        <v>48.1666666666667</v>
+        <v>50.774999999999999</v>
       </c>
       <c r="G88" s="44">
-        <v>47.4166666666667</v>
+        <v>50.125</v>
       </c>
       <c r="H88" s="44">
-        <v>48.466666666666697</v>
+        <v>51.1</v>
       </c>
       <c r="I88" s="45">
         <v>31.6083813003339</v>
@@ -4928,7 +4928,7 @@
         <v>2.64746297488341</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="33" t="s">
         <v>154</v>
@@ -4943,13 +4943,13 @@
         <v>70.399461538461594</v>
       </c>
       <c r="F89" s="43">
-        <v>50.1413043478261</v>
+        <v>50.010344827586202</v>
       </c>
       <c r="G89" s="44">
-        <v>47.5717391304348</v>
+        <v>48.041379310344901</v>
       </c>
       <c r="H89" s="44">
-        <v>51.05</v>
+        <v>50.696551724137898</v>
       </c>
       <c r="I89" s="45">
         <v>28.302722535834299</v>
@@ -4967,7 +4967,7 @@
         <v>6.1050950397514798</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="46" t="s">
         <v>155</v>
@@ -4982,13 +4982,13 @@
         <v>70.337372549019605</v>
       </c>
       <c r="F90" s="47">
-        <v>13.34</v>
+        <v>13.8222222222222</v>
       </c>
       <c r="G90" s="48">
-        <v>12.7314285714286</v>
+        <v>13.2055555555556</v>
       </c>
       <c r="H90" s="48">
-        <v>13.8828571428571</v>
+        <v>14.3722222222222</v>
       </c>
       <c r="I90" s="49">
         <v>10.649763132779</v>
@@ -5006,7 +5006,7 @@
         <v>0.86164153450915004</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="50" t="s">
         <v>156</v>
@@ -5024,10 +5024,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="G91" s="52">
-        <v>92.196296296296396</v>
+        <v>92.196296296296296</v>
       </c>
       <c r="H91" s="52">
-        <v>86.044444444444395</v>
+        <v>86.044444444444494</v>
       </c>
       <c r="I91" s="53">
         <v>75.921797775971498</v>
@@ -5045,7 +5045,7 @@
         <v>19.839589859267001</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="33" t="s">
         <v>157</v>
@@ -5084,7 +5084,7 @@
         <v>23.832828791619701</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>158</v>
@@ -5123,7 +5123,7 @@
         <v>8.9284957059786194</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="33" t="s">
         <v>159</v>
@@ -5138,13 +5138,13 @@
         <v>71.199476190476204</v>
       </c>
       <c r="F94" s="43">
-        <v>59.9304347826087</v>
+        <v>58.733333333333398</v>
       </c>
       <c r="G94" s="44">
-        <v>57.056521739130403</v>
+        <v>55.608333333333398</v>
       </c>
       <c r="H94" s="44">
-        <v>61.9652173913044</v>
+        <v>60.983333333333398</v>
       </c>
       <c r="I94" s="45">
         <v>35.594762809549003</v>
@@ -5162,7 +5162,7 @@
         <v>7.9808046555057901</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="33" t="s">
         <v>160</v>
@@ -5177,13 +5177,13 @@
         <v>72.676437500000006</v>
       </c>
       <c r="F95" s="43">
-        <v>86.274074074074093</v>
+        <v>85.871428571428595</v>
       </c>
       <c r="G95" s="44">
-        <v>89.118518518518499</v>
+        <v>88.55</v>
       </c>
       <c r="H95" s="44">
-        <v>84.085185185185196</v>
+        <v>83.821428571428598</v>
       </c>
       <c r="I95" s="45">
         <v>72.655967149261599</v>
@@ -5201,7 +5201,7 @@
         <v>22.6352525299001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="46" t="s">
         <v>161</v>
@@ -5216,13 +5216,13 @@
         <v>65.518666666666704</v>
       </c>
       <c r="F96" s="47">
-        <v>66.099999999999994</v>
+        <v>62.88</v>
       </c>
       <c r="G96" s="48">
-        <v>67.929411764705904</v>
+        <v>64.45</v>
       </c>
       <c r="H96" s="48">
-        <v>65.276470588235298</v>
+        <v>62.16</v>
       </c>
       <c r="I96" s="49">
         <v>42.2939315357917</v>
@@ -5240,85 +5240,85 @@
         <v>12.747941614858901</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>162</v>
       </c>
       <c r="C97" s="51">
-        <v>63.338052631578897</v>
+        <v>63.459178571428602</v>
       </c>
       <c r="D97" s="52">
-        <v>56.997500000000002</v>
+        <v>57.112178571428601</v>
       </c>
       <c r="E97" s="53">
-        <v>69.824236842105293</v>
+        <v>69.979285714285695</v>
       </c>
       <c r="F97" s="51">
-        <v>87.706896551724199</v>
+        <v>86.76</v>
       </c>
       <c r="G97" s="52">
-        <v>91.372413793103405</v>
+        <v>90.736000000000004</v>
       </c>
       <c r="H97" s="52">
-        <v>84.827586206896598</v>
+        <v>83.623999999999995</v>
       </c>
       <c r="I97" s="53">
-        <v>74.169877705663495</v>
+        <v>71.535909965103002</v>
       </c>
       <c r="J97" s="52">
-        <v>23.666121648986501</v>
+        <v>26.380963914956599</v>
       </c>
       <c r="K97" s="52">
-        <v>2.1640020222980199</v>
+        <v>2.0831189855276802</v>
       </c>
       <c r="L97" s="52">
-        <v>56.2300590860849</v>
+        <v>55.117184691789099</v>
       </c>
       <c r="M97" s="53">
-        <v>17.939818619578599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16.4187252733138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>163</v>
       </c>
       <c r="C98" s="47">
-        <v>56.732315789473702</v>
+        <v>59.288333333333298</v>
       </c>
       <c r="D98" s="48">
-        <v>42.8692631578947</v>
+        <v>47.862400000000001</v>
       </c>
       <c r="E98" s="49">
-        <v>70.8282105263158</v>
+        <v>70.927466666666703</v>
       </c>
       <c r="F98" s="47">
-        <v>80.895652173913007</v>
+        <v>82.144444444444503</v>
       </c>
       <c r="G98" s="48">
-        <v>81.547826086956505</v>
+        <v>83.8</v>
       </c>
       <c r="H98" s="48">
-        <v>80.273913043478302</v>
+        <v>81.366666666666703</v>
       </c>
       <c r="I98" s="49">
-        <v>49.820647950872299</v>
+        <v>50.848997692994601</v>
       </c>
       <c r="J98" s="48">
-        <v>47.3846479110994</v>
+        <v>46.324985011071199</v>
       </c>
       <c r="K98" s="48">
-        <v>2.7947062323122398</v>
+        <v>2.8260202317800598</v>
       </c>
       <c r="L98" s="48">
-        <v>35.704174926712803</v>
+        <v>35.533886280230703</v>
       </c>
       <c r="M98" s="49">
-        <v>14.1164730241596</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+        <v>15.315111412763899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -5333,7 +5333,7 @@
       <c r="L99" s="56"/>
       <c r="M99" s="56"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="L100" s="57"/>
       <c r="M100" s="57"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="L101" s="57"/>
       <c r="M101" s="57"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="L102" s="57"/>
       <c r="M102" s="57"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="L103" s="57"/>
       <c r="M103" s="57"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="L104" s="57"/>
       <c r="M104" s="57"/>
     </row>
-    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B105" s="58"/>
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
@@ -5427,7 +5427,7 @@
       <c r="L105" s="57"/>
       <c r="M105" s="57"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -5443,7 +5443,7 @@
       <c r="O106" s="57"/>
       <c r="P106" s="57"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>169</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="O107" s="57"/>
       <c r="P107" s="57"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -5479,7 +5479,7 @@
       <c r="O108" s="57"/>
       <c r="P108" s="57"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="L109" s="57"/>
       <c r="M109" s="57"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="L110" s="57"/>
       <c r="M110" s="57"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>174</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="L111" s="57"/>
       <c r="M111" s="57"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="L112" s="57"/>
       <c r="M112" s="57"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>171</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="L113" s="57"/>
       <c r="M113" s="57"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -5575,12 +5575,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{76D3BAC4-AD0A-48C1-8913-413741B804F9}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E1EFF7D6-03D3-4EBD-B106-B8F82FF7BE68}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A90B4DEC-135B-4072-8D74-45CC77AE8FF2}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{0B526B10-5B8F-4755-8BB0-7C447776A46E}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{95223C39-3849-4AAC-8CF1-230F0564940B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{85A0BC40-3C14-4F57-99F5-EA436C5A440D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A28782BD-00CB-488F-88F4-A51AA6C8026B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{104627AA-A214-4584-839A-D40B2EE61A57}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{A3EA6C8C-CD0B-4993-AD78-24BE1B4C26C2}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{3C73D8DE-B77F-45F5-87D5-E9EE6896BE1B}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{D6C215FA-5A8A-44AE-A3D7-FD36F12563B6}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F336B446-5D45-4D78-836F-509E801909C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
